--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\Geek Stuff\Source Code\Arduino Source Code\O-Scope_XY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8A048-DE37-43CE-AC85-DB6582BD287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF05D64-CB8A-4F35-BED2-728D46284E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4021E60-8DFB-4E05-9B04-73E3B9062F1F}"/>
+    <workbookView minimized="1" xWindow="5844" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{A4021E60-8DFB-4E05-9B04-73E3B9062F1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Cat points" sheetId="7" r:id="rId1"/>
     <sheet name="Tek" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Trav" sheetId="2" r:id="rId4"/>
-    <sheet name="Tree" sheetId="1" r:id="rId5"/>
-    <sheet name="Clover" sheetId="3" r:id="rId6"/>
-    <sheet name="4  leaf" sheetId="4" r:id="rId7"/>
+    <sheet name="Trav" sheetId="2" r:id="rId3"/>
+    <sheet name="Tree" sheetId="1" r:id="rId4"/>
+    <sheet name="Clover" sheetId="3" r:id="rId5"/>
+    <sheet name="4  leaf" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>x</t>
   </si>
@@ -88,33 +87,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>unsigned</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>x_points[NUM_POINTS]</t>
-  </si>
-  <si>
-    <t>PROGMEM=</t>
-  </si>
-  <si>
-    <t>115}</t>
-  </si>
-  <si>
-    <t>y_points[NUM_POINTS]</t>
-  </si>
-  <si>
-    <t>PROGMEM</t>
-  </si>
-  <si>
-    <t>70}</t>
   </si>
 </sst>
 </file>
@@ -10040,4872 +10012,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1640025-262B-488B-9CC5-F2E7267BC730}">
-  <dimension ref="C6:MM353"/>
-  <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E353"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="6" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>155</v>
-      </c>
-      <c r="I6">
-        <v>153</v>
-      </c>
-      <c r="J6">
-        <v>153</v>
-      </c>
-      <c r="K6">
-        <v>152</v>
-      </c>
-      <c r="L6">
-        <v>151</v>
-      </c>
-      <c r="M6">
-        <v>149</v>
-      </c>
-      <c r="N6">
-        <v>148</v>
-      </c>
-      <c r="O6">
-        <v>146</v>
-      </c>
-      <c r="P6">
-        <v>144</v>
-      </c>
-      <c r="Q6">
-        <v>143</v>
-      </c>
-      <c r="R6">
-        <v>141</v>
-      </c>
-      <c r="S6">
-        <v>139</v>
-      </c>
-      <c r="T6">
-        <v>138</v>
-      </c>
-      <c r="U6">
-        <v>136</v>
-      </c>
-      <c r="V6">
-        <v>134</v>
-      </c>
-      <c r="W6">
-        <v>132</v>
-      </c>
-      <c r="X6">
-        <v>130</v>
-      </c>
-      <c r="Y6">
-        <v>128</v>
-      </c>
-      <c r="Z6">
-        <v>126</v>
-      </c>
-      <c r="AA6">
-        <v>124</v>
-      </c>
-      <c r="AB6">
-        <v>122</v>
-      </c>
-      <c r="AC6">
-        <v>120</v>
-      </c>
-      <c r="AD6">
-        <v>119</v>
-      </c>
-      <c r="AE6">
-        <v>118</v>
-      </c>
-      <c r="AF6">
-        <v>118</v>
-      </c>
-      <c r="AG6">
-        <v>116</v>
-      </c>
-      <c r="AH6">
-        <v>116</v>
-      </c>
-      <c r="AI6">
-        <v>116</v>
-      </c>
-      <c r="AJ6">
-        <v>115</v>
-      </c>
-      <c r="AK6">
-        <v>114</v>
-      </c>
-      <c r="AL6">
-        <v>113</v>
-      </c>
-      <c r="AM6">
-        <v>113</v>
-      </c>
-      <c r="AN6">
-        <v>112</v>
-      </c>
-      <c r="AO6">
-        <v>111</v>
-      </c>
-      <c r="AP6">
-        <v>110</v>
-      </c>
-      <c r="AQ6">
-        <v>109</v>
-      </c>
-      <c r="AR6">
-        <v>107</v>
-      </c>
-      <c r="AS6">
-        <v>106</v>
-      </c>
-      <c r="AT6">
-        <v>105</v>
-      </c>
-      <c r="AU6">
-        <v>104</v>
-      </c>
-      <c r="AV6">
-        <v>103</v>
-      </c>
-      <c r="AW6">
-        <v>103</v>
-      </c>
-      <c r="AX6">
-        <v>102</v>
-      </c>
-      <c r="AY6">
-        <v>101</v>
-      </c>
-      <c r="AZ6">
-        <v>100</v>
-      </c>
-      <c r="BA6">
-        <v>99</v>
-      </c>
-      <c r="BB6">
-        <v>98</v>
-      </c>
-      <c r="BC6">
-        <v>98</v>
-      </c>
-      <c r="BD6">
-        <v>98</v>
-      </c>
-      <c r="BE6">
-        <v>98</v>
-      </c>
-      <c r="BF6">
-        <v>98</v>
-      </c>
-      <c r="BG6">
-        <v>98</v>
-      </c>
-      <c r="BH6">
-        <v>98</v>
-      </c>
-      <c r="BI6">
-        <v>98</v>
-      </c>
-      <c r="BJ6">
-        <v>98</v>
-      </c>
-      <c r="BK6">
-        <v>98</v>
-      </c>
-      <c r="BL6">
-        <v>97</v>
-      </c>
-      <c r="BM6">
-        <v>97</v>
-      </c>
-      <c r="BN6">
-        <v>155</v>
-      </c>
-      <c r="BO6">
-        <v>156</v>
-      </c>
-      <c r="BP6">
-        <v>157</v>
-      </c>
-      <c r="BQ6">
-        <v>157</v>
-      </c>
-      <c r="BR6">
-        <v>158</v>
-      </c>
-      <c r="BS6">
-        <v>159</v>
-      </c>
-      <c r="BT6">
-        <v>160</v>
-      </c>
-      <c r="BU6">
-        <v>161</v>
-      </c>
-      <c r="BV6">
-        <v>162</v>
-      </c>
-      <c r="BW6">
-        <v>162</v>
-      </c>
-      <c r="BX6">
-        <v>164</v>
-      </c>
-      <c r="BY6">
-        <v>165</v>
-      </c>
-      <c r="BZ6">
-        <v>166</v>
-      </c>
-      <c r="CA6">
-        <v>167</v>
-      </c>
-      <c r="CB6">
-        <v>168</v>
-      </c>
-      <c r="CC6">
-        <v>170</v>
-      </c>
-      <c r="CD6">
-        <v>170</v>
-      </c>
-      <c r="CE6">
-        <v>171</v>
-      </c>
-      <c r="CF6">
-        <v>171</v>
-      </c>
-      <c r="CG6">
-        <v>172</v>
-      </c>
-      <c r="CH6">
-        <v>172</v>
-      </c>
-      <c r="CI6">
-        <v>172</v>
-      </c>
-      <c r="CJ6">
-        <v>173</v>
-      </c>
-      <c r="CK6">
-        <v>173</v>
-      </c>
-      <c r="CL6">
-        <v>173</v>
-      </c>
-      <c r="CM6">
-        <v>173</v>
-      </c>
-      <c r="CN6">
-        <v>174</v>
-      </c>
-      <c r="CO6">
-        <v>174</v>
-      </c>
-      <c r="CP6">
-        <v>176</v>
-      </c>
-      <c r="CQ6">
-        <v>176</v>
-      </c>
-      <c r="CR6">
-        <v>176</v>
-      </c>
-      <c r="CS6">
-        <v>177</v>
-      </c>
-      <c r="CT6">
-        <v>177</v>
-      </c>
-      <c r="CU6">
-        <v>177</v>
-      </c>
-      <c r="CV6">
-        <v>177</v>
-      </c>
-      <c r="CW6">
-        <v>177</v>
-      </c>
-      <c r="CX6">
-        <v>177</v>
-      </c>
-      <c r="CY6">
-        <v>177</v>
-      </c>
-      <c r="CZ6">
-        <v>175</v>
-      </c>
-      <c r="DA6">
-        <v>175</v>
-      </c>
-      <c r="DB6">
-        <v>174</v>
-      </c>
-      <c r="DC6">
-        <v>173</v>
-      </c>
-      <c r="DD6">
-        <v>172</v>
-      </c>
-      <c r="DE6">
-        <v>170</v>
-      </c>
-      <c r="DF6">
-        <v>169</v>
-      </c>
-      <c r="DG6">
-        <v>168</v>
-      </c>
-      <c r="DH6">
-        <v>166</v>
-      </c>
-      <c r="DI6">
-        <v>165</v>
-      </c>
-      <c r="DJ6">
-        <v>163</v>
-      </c>
-      <c r="DK6">
-        <v>162</v>
-      </c>
-      <c r="DL6">
-        <v>161</v>
-      </c>
-      <c r="DM6">
-        <v>159</v>
-      </c>
-      <c r="DN6">
-        <v>157</v>
-      </c>
-      <c r="DO6">
-        <v>156</v>
-      </c>
-      <c r="DP6">
-        <v>154</v>
-      </c>
-      <c r="DQ6">
-        <v>152</v>
-      </c>
-      <c r="DR6">
-        <v>150</v>
-      </c>
-      <c r="DS6">
-        <v>149</v>
-      </c>
-      <c r="DT6">
-        <v>147</v>
-      </c>
-      <c r="DU6">
-        <v>145</v>
-      </c>
-      <c r="DV6">
-        <v>143</v>
-      </c>
-      <c r="DW6">
-        <v>141</v>
-      </c>
-      <c r="DX6">
-        <v>139</v>
-      </c>
-      <c r="DY6">
-        <v>137</v>
-      </c>
-      <c r="DZ6">
-        <v>135</v>
-      </c>
-      <c r="EA6">
-        <v>133</v>
-      </c>
-      <c r="EB6">
-        <v>131</v>
-      </c>
-      <c r="EC6">
-        <v>129</v>
-      </c>
-      <c r="ED6">
-        <v>127</v>
-      </c>
-      <c r="EE6">
-        <v>125</v>
-      </c>
-      <c r="EF6">
-        <v>123</v>
-      </c>
-      <c r="EG6">
-        <v>121</v>
-      </c>
-      <c r="EH6">
-        <v>119</v>
-      </c>
-      <c r="EI6">
-        <v>117</v>
-      </c>
-      <c r="EJ6">
-        <v>116</v>
-      </c>
-      <c r="EK6">
-        <v>114</v>
-      </c>
-      <c r="EL6">
-        <v>113</v>
-      </c>
-      <c r="EM6">
-        <v>111</v>
-      </c>
-      <c r="EN6">
-        <v>110</v>
-      </c>
-      <c r="EO6">
-        <v>108</v>
-      </c>
-      <c r="EP6">
-        <v>107</v>
-      </c>
-      <c r="EQ6">
-        <v>106</v>
-      </c>
-      <c r="ER6">
-        <v>105</v>
-      </c>
-      <c r="ES6">
-        <v>104</v>
-      </c>
-      <c r="ET6">
-        <v>103</v>
-      </c>
-      <c r="EU6">
-        <v>102</v>
-      </c>
-      <c r="EV6">
-        <v>101</v>
-      </c>
-      <c r="EW6">
-        <v>100</v>
-      </c>
-      <c r="EX6">
-        <v>99</v>
-      </c>
-      <c r="EY6">
-        <v>98</v>
-      </c>
-      <c r="EZ6">
-        <v>98</v>
-      </c>
-      <c r="FA6">
-        <v>97</v>
-      </c>
-      <c r="FB6">
-        <v>96</v>
-      </c>
-      <c r="FC6">
-        <v>96</v>
-      </c>
-      <c r="FD6">
-        <v>96</v>
-      </c>
-      <c r="FE6">
-        <v>95</v>
-      </c>
-      <c r="FF6">
-        <v>95</v>
-      </c>
-      <c r="FG6">
-        <v>95</v>
-      </c>
-      <c r="FH6">
-        <v>96</v>
-      </c>
-      <c r="FI6">
-        <v>139</v>
-      </c>
-      <c r="FJ6">
-        <v>138</v>
-      </c>
-      <c r="FK6">
-        <v>136</v>
-      </c>
-      <c r="FL6">
-        <v>134</v>
-      </c>
-      <c r="FM6">
-        <v>132</v>
-      </c>
-      <c r="FN6">
-        <v>130</v>
-      </c>
-      <c r="FO6">
-        <v>128</v>
-      </c>
-      <c r="FP6">
-        <v>128</v>
-      </c>
-      <c r="FQ6">
-        <v>129</v>
-      </c>
-      <c r="FR6">
-        <v>130</v>
-      </c>
-      <c r="FS6">
-        <v>131</v>
-      </c>
-      <c r="FT6">
-        <v>132</v>
-      </c>
-      <c r="FU6">
-        <v>134</v>
-      </c>
-      <c r="FV6">
-        <v>135</v>
-      </c>
-      <c r="FW6">
-        <v>137</v>
-      </c>
-      <c r="FX6">
-        <v>139</v>
-      </c>
-      <c r="FY6">
-        <v>140</v>
-      </c>
-      <c r="FZ6">
-        <v>142</v>
-      </c>
-      <c r="GA6">
-        <v>142</v>
-      </c>
-      <c r="GB6">
-        <v>143</v>
-      </c>
-      <c r="GC6">
-        <v>143</v>
-      </c>
-      <c r="GD6">
-        <v>143</v>
-      </c>
-      <c r="GE6">
-        <v>141</v>
-      </c>
-      <c r="GF6">
-        <v>139</v>
-      </c>
-      <c r="GG6">
-        <v>138</v>
-      </c>
-      <c r="GH6">
-        <v>136</v>
-      </c>
-      <c r="GI6">
-        <v>135</v>
-      </c>
-      <c r="GJ6">
-        <v>138</v>
-      </c>
-      <c r="GK6">
-        <v>138</v>
-      </c>
-      <c r="GL6">
-        <v>138</v>
-      </c>
-      <c r="GM6">
-        <v>138</v>
-      </c>
-      <c r="GN6">
-        <v>138</v>
-      </c>
-      <c r="GO6">
-        <v>137</v>
-      </c>
-      <c r="GP6">
-        <v>136</v>
-      </c>
-      <c r="GQ6">
-        <v>134</v>
-      </c>
-      <c r="GR6">
-        <v>132</v>
-      </c>
-      <c r="GS6">
-        <v>130</v>
-      </c>
-      <c r="GT6">
-        <v>129</v>
-      </c>
-      <c r="GU6">
-        <v>139</v>
-      </c>
-      <c r="GV6">
-        <v>139</v>
-      </c>
-      <c r="GW6">
-        <v>139</v>
-      </c>
-      <c r="GX6">
-        <v>139</v>
-      </c>
-      <c r="GY6">
-        <v>139</v>
-      </c>
-      <c r="GZ6">
-        <v>140</v>
-      </c>
-      <c r="HA6">
-        <v>141</v>
-      </c>
-      <c r="HB6">
-        <v>143</v>
-      </c>
-      <c r="HC6">
-        <v>145</v>
-      </c>
-      <c r="HD6">
-        <v>147</v>
-      </c>
-      <c r="HE6">
-        <v>163</v>
-      </c>
-      <c r="HF6">
-        <v>165</v>
-      </c>
-      <c r="HG6">
-        <v>166</v>
-      </c>
-      <c r="HH6">
-        <v>168</v>
-      </c>
-      <c r="HI6">
-        <v>170</v>
-      </c>
-      <c r="HJ6">
-        <v>172</v>
-      </c>
-      <c r="HK6">
-        <v>173</v>
-      </c>
-      <c r="HL6">
-        <v>175</v>
-      </c>
-      <c r="HM6">
-        <v>177</v>
-      </c>
-      <c r="HN6">
-        <v>178</v>
-      </c>
-      <c r="HO6">
-        <v>180</v>
-      </c>
-      <c r="HP6">
-        <v>181</v>
-      </c>
-      <c r="HQ6">
-        <v>183</v>
-      </c>
-      <c r="HR6">
-        <v>185</v>
-      </c>
-      <c r="HS6">
-        <v>186</v>
-      </c>
-      <c r="HT6">
-        <v>188</v>
-      </c>
-      <c r="HU6">
-        <v>190</v>
-      </c>
-      <c r="HV6">
-        <v>191</v>
-      </c>
-      <c r="HW6">
-        <v>193</v>
-      </c>
-      <c r="HX6">
-        <v>195</v>
-      </c>
-      <c r="HY6">
-        <v>197</v>
-      </c>
-      <c r="HZ6">
-        <v>199</v>
-      </c>
-      <c r="IA6">
-        <v>201</v>
-      </c>
-      <c r="IB6">
-        <v>203</v>
-      </c>
-      <c r="IC6">
-        <v>205</v>
-      </c>
-      <c r="ID6">
-        <v>207</v>
-      </c>
-      <c r="IE6">
-        <v>209</v>
-      </c>
-      <c r="IF6">
-        <v>211</v>
-      </c>
-      <c r="IG6">
-        <v>156</v>
-      </c>
-      <c r="IH6">
-        <v>157</v>
-      </c>
-      <c r="II6">
-        <v>158</v>
-      </c>
-      <c r="IJ6">
-        <v>160</v>
-      </c>
-      <c r="IK6">
-        <v>161</v>
-      </c>
-      <c r="IL6">
-        <v>162</v>
-      </c>
-      <c r="IM6">
-        <v>164</v>
-      </c>
-      <c r="IN6">
-        <v>165</v>
-      </c>
-      <c r="IO6">
-        <v>167</v>
-      </c>
-      <c r="IP6">
-        <v>169</v>
-      </c>
-      <c r="IQ6">
-        <v>170</v>
-      </c>
-      <c r="IR6">
-        <v>172</v>
-      </c>
-      <c r="IS6">
-        <v>173</v>
-      </c>
-      <c r="IT6">
-        <v>175</v>
-      </c>
-      <c r="IU6">
-        <v>176</v>
-      </c>
-      <c r="IV6">
-        <v>177</v>
-      </c>
-      <c r="IW6">
-        <v>179</v>
-      </c>
-      <c r="IX6">
-        <v>180</v>
-      </c>
-      <c r="IY6">
-        <v>181</v>
-      </c>
-      <c r="IZ6">
-        <v>183</v>
-      </c>
-      <c r="JA6">
-        <v>184</v>
-      </c>
-      <c r="JB6">
-        <v>186</v>
-      </c>
-      <c r="JC6">
-        <v>187</v>
-      </c>
-      <c r="JD6">
-        <v>188</v>
-      </c>
-      <c r="JE6">
-        <v>189</v>
-      </c>
-      <c r="JF6">
-        <v>190</v>
-      </c>
-      <c r="JG6">
-        <v>191</v>
-      </c>
-      <c r="JH6">
-        <v>152</v>
-      </c>
-      <c r="JI6">
-        <v>153</v>
-      </c>
-      <c r="JJ6">
-        <v>155</v>
-      </c>
-      <c r="JK6">
-        <v>156</v>
-      </c>
-      <c r="JL6">
-        <v>157</v>
-      </c>
-      <c r="JM6">
-        <v>159</v>
-      </c>
-      <c r="JN6">
-        <v>161</v>
-      </c>
-      <c r="JO6">
-        <v>162</v>
-      </c>
-      <c r="JP6">
-        <v>163</v>
-      </c>
-      <c r="JQ6">
-        <v>164</v>
-      </c>
-      <c r="JR6">
-        <v>165</v>
-      </c>
-      <c r="JS6">
-        <v>167</v>
-      </c>
-      <c r="JT6">
-        <v>168</v>
-      </c>
-      <c r="JU6">
-        <v>169</v>
-      </c>
-      <c r="JV6">
-        <v>171</v>
-      </c>
-      <c r="JW6">
-        <v>172</v>
-      </c>
-      <c r="JX6">
-        <v>173</v>
-      </c>
-      <c r="JY6">
-        <v>174</v>
-      </c>
-      <c r="JZ6">
-        <v>175</v>
-      </c>
-      <c r="KA6">
-        <v>114</v>
-      </c>
-      <c r="KB6">
-        <v>112</v>
-      </c>
-      <c r="KC6">
-        <v>110</v>
-      </c>
-      <c r="KD6">
-        <v>109</v>
-      </c>
-      <c r="KE6">
-        <v>107</v>
-      </c>
-      <c r="KF6">
-        <v>106</v>
-      </c>
-      <c r="KG6">
-        <v>105</v>
-      </c>
-      <c r="KH6">
-        <v>103</v>
-      </c>
-      <c r="KI6">
-        <v>102</v>
-      </c>
-      <c r="KJ6">
-        <v>100</v>
-      </c>
-      <c r="KK6">
-        <v>98</v>
-      </c>
-      <c r="KL6">
-        <v>97</v>
-      </c>
-      <c r="KM6">
-        <v>95</v>
-      </c>
-      <c r="KN6">
-        <v>94</v>
-      </c>
-      <c r="KO6">
-        <v>92</v>
-      </c>
-      <c r="KP6">
-        <v>91</v>
-      </c>
-      <c r="KQ6">
-        <v>89</v>
-      </c>
-      <c r="KR6">
-        <v>88</v>
-      </c>
-      <c r="KS6">
-        <v>86</v>
-      </c>
-      <c r="KT6">
-        <v>84</v>
-      </c>
-      <c r="KU6">
-        <v>83</v>
-      </c>
-      <c r="KV6">
-        <v>81</v>
-      </c>
-      <c r="KW6">
-        <v>79</v>
-      </c>
-      <c r="KX6">
-        <v>81</v>
-      </c>
-      <c r="KY6">
-        <v>82</v>
-      </c>
-      <c r="KZ6">
-        <v>84</v>
-      </c>
-      <c r="LA6">
-        <v>86</v>
-      </c>
-      <c r="LB6">
-        <v>88</v>
-      </c>
-      <c r="LC6">
-        <v>120</v>
-      </c>
-      <c r="LD6">
-        <v>118</v>
-      </c>
-      <c r="LE6">
-        <v>117</v>
-      </c>
-      <c r="LF6">
-        <v>116</v>
-      </c>
-      <c r="LG6">
-        <v>115</v>
-      </c>
-      <c r="LH6">
-        <v>114</v>
-      </c>
-      <c r="LI6">
-        <v>114</v>
-      </c>
-      <c r="LJ6">
-        <v>113</v>
-      </c>
-      <c r="LK6">
-        <v>112</v>
-      </c>
-      <c r="LL6">
-        <v>111</v>
-      </c>
-      <c r="LM6">
-        <v>110</v>
-      </c>
-      <c r="LN6">
-        <v>109</v>
-      </c>
-      <c r="LO6">
-        <v>108</v>
-      </c>
-      <c r="LP6">
-        <v>107</v>
-      </c>
-      <c r="LQ6">
-        <v>106</v>
-      </c>
-      <c r="LR6">
-        <v>104</v>
-      </c>
-      <c r="LS6">
-        <v>104</v>
-      </c>
-      <c r="LT6">
-        <v>102</v>
-      </c>
-      <c r="LU6">
-        <v>101</v>
-      </c>
-      <c r="LV6">
-        <v>100</v>
-      </c>
-      <c r="LW6">
-        <v>98</v>
-      </c>
-      <c r="LX6">
-        <v>124</v>
-      </c>
-      <c r="LY6">
-        <v>124</v>
-      </c>
-      <c r="LZ6">
-        <v>123</v>
-      </c>
-      <c r="MA6">
-        <v>123</v>
-      </c>
-      <c r="MB6">
-        <v>122</v>
-      </c>
-      <c r="MC6">
-        <v>121</v>
-      </c>
-      <c r="MD6">
-        <v>121</v>
-      </c>
-      <c r="ME6">
-        <v>119</v>
-      </c>
-      <c r="MF6">
-        <v>118</v>
-      </c>
-      <c r="MG6">
-        <v>118</v>
-      </c>
-      <c r="MH6">
-        <v>117</v>
-      </c>
-      <c r="MI6">
-        <v>117</v>
-      </c>
-      <c r="MJ6">
-        <v>116</v>
-      </c>
-      <c r="MK6">
-        <v>116</v>
-      </c>
-      <c r="ML6">
-        <v>115</v>
-      </c>
-      <c r="MM6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
-        <v>129</v>
-      </c>
-      <c r="I7">
-        <v>129</v>
-      </c>
-      <c r="J7">
-        <v>131</v>
-      </c>
-      <c r="K7">
-        <v>132</v>
-      </c>
-      <c r="L7">
-        <v>133</v>
-      </c>
-      <c r="M7">
-        <v>133</v>
-      </c>
-      <c r="N7">
-        <v>134</v>
-      </c>
-      <c r="O7">
-        <v>135</v>
-      </c>
-      <c r="P7">
-        <v>135</v>
-      </c>
-      <c r="Q7">
-        <v>136</v>
-      </c>
-      <c r="R7">
-        <v>136</v>
-      </c>
-      <c r="S7">
-        <v>136</v>
-      </c>
-      <c r="T7">
-        <v>137</v>
-      </c>
-      <c r="U7">
-        <v>137</v>
-      </c>
-      <c r="V7">
-        <v>137</v>
-      </c>
-      <c r="W7">
-        <v>137</v>
-      </c>
-      <c r="X7">
-        <v>137</v>
-      </c>
-      <c r="Y7">
-        <v>137</v>
-      </c>
-      <c r="Z7">
-        <v>137</v>
-      </c>
-      <c r="AA7">
-        <v>137</v>
-      </c>
-      <c r="AB7">
-        <v>137</v>
-      </c>
-      <c r="AC7">
-        <v>137</v>
-      </c>
-      <c r="AD7">
-        <v>136</v>
-      </c>
-      <c r="AE7">
-        <v>135</v>
-      </c>
-      <c r="AF7">
-        <v>133</v>
-      </c>
-      <c r="AG7">
-        <v>133</v>
-      </c>
-      <c r="AH7">
-        <v>131</v>
-      </c>
-      <c r="AI7">
-        <v>130</v>
-      </c>
-      <c r="AJ7">
-        <v>131</v>
-      </c>
-      <c r="AK7">
-        <v>132</v>
-      </c>
-      <c r="AL7">
-        <v>133</v>
-      </c>
-      <c r="AM7">
-        <v>135</v>
-      </c>
-      <c r="AN7">
-        <v>136</v>
-      </c>
-      <c r="AO7">
-        <v>137</v>
-      </c>
-      <c r="AP7">
-        <v>138</v>
-      </c>
-      <c r="AQ7">
-        <v>140</v>
-      </c>
-      <c r="AR7">
-        <v>140</v>
-      </c>
-      <c r="AS7">
-        <v>142</v>
-      </c>
-      <c r="AT7">
-        <v>143</v>
-      </c>
-      <c r="AU7">
-        <v>144</v>
-      </c>
-      <c r="AV7">
-        <v>145</v>
-      </c>
-      <c r="AW7">
-        <v>147</v>
-      </c>
-      <c r="AX7">
-        <v>148</v>
-      </c>
-      <c r="AY7">
-        <v>149</v>
-      </c>
-      <c r="AZ7">
-        <v>150</v>
-      </c>
-      <c r="BA7">
-        <v>151</v>
-      </c>
-      <c r="BB7">
-        <v>152</v>
-      </c>
-      <c r="BC7">
-        <v>150</v>
-      </c>
-      <c r="BD7">
-        <v>148</v>
-      </c>
-      <c r="BE7">
-        <v>146</v>
-      </c>
-      <c r="BF7">
-        <v>144</v>
-      </c>
-      <c r="BG7">
-        <v>142</v>
-      </c>
-      <c r="BH7">
-        <v>140</v>
-      </c>
-      <c r="BI7">
-        <v>138</v>
-      </c>
-      <c r="BJ7">
-        <v>136</v>
-      </c>
-      <c r="BK7">
-        <v>134</v>
-      </c>
-      <c r="BL7">
-        <v>133</v>
-      </c>
-      <c r="BM7">
-        <v>131</v>
-      </c>
-      <c r="BN7">
-        <v>129</v>
-      </c>
-      <c r="BO7">
-        <v>130</v>
-      </c>
-      <c r="BP7">
-        <v>131</v>
-      </c>
-      <c r="BQ7">
-        <v>133</v>
-      </c>
-      <c r="BR7">
-        <v>134</v>
-      </c>
-      <c r="BS7">
-        <v>135</v>
-      </c>
-      <c r="BT7">
-        <v>136</v>
-      </c>
-      <c r="BU7">
-        <v>137</v>
-      </c>
-      <c r="BV7">
-        <v>138</v>
-      </c>
-      <c r="BW7">
-        <v>140</v>
-      </c>
-      <c r="BX7">
-        <v>140</v>
-      </c>
-      <c r="BY7">
-        <v>141</v>
-      </c>
-      <c r="BZ7">
-        <v>143</v>
-      </c>
-      <c r="CA7">
-        <v>144</v>
-      </c>
-      <c r="CB7">
-        <v>145</v>
-      </c>
-      <c r="CC7">
-        <v>145</v>
-      </c>
-      <c r="CD7">
-        <v>147</v>
-      </c>
-      <c r="CE7">
-        <v>148</v>
-      </c>
-      <c r="CF7">
-        <v>146</v>
-      </c>
-      <c r="CG7">
-        <v>144</v>
-      </c>
-      <c r="CH7">
-        <v>142</v>
-      </c>
-      <c r="CI7">
-        <v>140</v>
-      </c>
-      <c r="CJ7">
-        <v>139</v>
-      </c>
-      <c r="CK7">
-        <v>137</v>
-      </c>
-      <c r="CL7">
-        <v>135</v>
-      </c>
-      <c r="CM7">
-        <v>133</v>
-      </c>
-      <c r="CN7">
-        <v>132</v>
-      </c>
-      <c r="CO7">
-        <v>130</v>
-      </c>
-      <c r="CP7">
-        <v>121</v>
-      </c>
-      <c r="CQ7">
-        <v>119</v>
-      </c>
-      <c r="CR7">
-        <v>117</v>
-      </c>
-      <c r="CS7">
-        <v>116</v>
-      </c>
-      <c r="CT7">
-        <v>114</v>
-      </c>
-      <c r="CU7">
-        <v>112</v>
-      </c>
-      <c r="CV7">
-        <v>110</v>
-      </c>
-      <c r="CW7">
-        <v>108</v>
-      </c>
-      <c r="CX7">
-        <v>106</v>
-      </c>
-      <c r="CY7">
-        <v>104</v>
-      </c>
-      <c r="CZ7">
-        <v>104</v>
-      </c>
-      <c r="DA7">
-        <v>102</v>
-      </c>
-      <c r="DB7">
-        <v>101</v>
-      </c>
-      <c r="DC7">
-        <v>100</v>
-      </c>
-      <c r="DD7">
-        <v>99</v>
-      </c>
-      <c r="DE7">
-        <v>99</v>
-      </c>
-      <c r="DF7">
-        <v>98</v>
-      </c>
-      <c r="DG7">
-        <v>97</v>
-      </c>
-      <c r="DH7">
-        <v>96</v>
-      </c>
-      <c r="DI7">
-        <v>95</v>
-      </c>
-      <c r="DJ7">
-        <v>95</v>
-      </c>
-      <c r="DK7">
-        <v>94</v>
-      </c>
-      <c r="DL7">
-        <v>93</v>
-      </c>
-      <c r="DM7">
-        <v>93</v>
-      </c>
-      <c r="DN7">
-        <v>93</v>
-      </c>
-      <c r="DO7">
-        <v>92</v>
-      </c>
-      <c r="DP7">
-        <v>92</v>
-      </c>
-      <c r="DQ7">
-        <v>92</v>
-      </c>
-      <c r="DR7">
-        <v>92</v>
-      </c>
-      <c r="DS7">
-        <v>91</v>
-      </c>
-      <c r="DT7">
-        <v>91</v>
-      </c>
-      <c r="DU7">
-        <v>91</v>
-      </c>
-      <c r="DV7">
-        <v>91</v>
-      </c>
-      <c r="DW7">
-        <v>91</v>
-      </c>
-      <c r="DX7">
-        <v>91</v>
-      </c>
-      <c r="DY7">
-        <v>91</v>
-      </c>
-      <c r="DZ7">
-        <v>91</v>
-      </c>
-      <c r="EA7">
-        <v>91</v>
-      </c>
-      <c r="EB7">
-        <v>91</v>
-      </c>
-      <c r="EC7">
-        <v>91</v>
-      </c>
-      <c r="ED7">
-        <v>91</v>
-      </c>
-      <c r="EE7">
-        <v>91</v>
-      </c>
-      <c r="EF7">
-        <v>91</v>
-      </c>
-      <c r="EG7">
-        <v>92</v>
-      </c>
-      <c r="EH7">
-        <v>92</v>
-      </c>
-      <c r="EI7">
-        <v>93</v>
-      </c>
-      <c r="EJ7">
-        <v>94</v>
-      </c>
-      <c r="EK7">
-        <v>94</v>
-      </c>
-      <c r="EL7">
-        <v>95</v>
-      </c>
-      <c r="EM7">
-        <v>95</v>
-      </c>
-      <c r="EN7">
-        <v>96</v>
-      </c>
-      <c r="EO7">
-        <v>97</v>
-      </c>
-      <c r="EP7">
-        <v>98</v>
-      </c>
-      <c r="EQ7">
-        <v>99</v>
-      </c>
-      <c r="ER7">
-        <v>100</v>
-      </c>
-      <c r="ES7">
-        <v>101</v>
-      </c>
-      <c r="ET7">
-        <v>102</v>
-      </c>
-      <c r="EU7">
-        <v>103</v>
-      </c>
-      <c r="EV7">
-        <v>104</v>
-      </c>
-      <c r="EW7">
-        <v>105</v>
-      </c>
-      <c r="EX7">
-        <v>106</v>
-      </c>
-      <c r="EY7">
-        <v>108</v>
-      </c>
-      <c r="EZ7">
-        <v>110</v>
-      </c>
-      <c r="FA7">
-        <v>111</v>
-      </c>
-      <c r="FB7">
-        <v>112</v>
-      </c>
-      <c r="FC7">
-        <v>114</v>
-      </c>
-      <c r="FD7">
-        <v>116</v>
-      </c>
-      <c r="FE7">
-        <v>117</v>
-      </c>
-      <c r="FF7">
-        <v>119</v>
-      </c>
-      <c r="FG7">
-        <v>121</v>
-      </c>
-      <c r="FH7">
-        <v>122</v>
-      </c>
-      <c r="FI7">
-        <v>110</v>
-      </c>
-      <c r="FJ7">
-        <v>111</v>
-      </c>
-      <c r="FK7">
-        <v>111</v>
-      </c>
-      <c r="FL7">
-        <v>111</v>
-      </c>
-      <c r="FM7">
-        <v>111</v>
-      </c>
-      <c r="FN7">
-        <v>111</v>
-      </c>
-      <c r="FO7">
-        <v>111</v>
-      </c>
-      <c r="FP7">
-        <v>109</v>
-      </c>
-      <c r="FQ7">
-        <v>108</v>
-      </c>
-      <c r="FR7">
-        <v>107</v>
-      </c>
-      <c r="FS7">
-        <v>106</v>
-      </c>
-      <c r="FT7">
-        <v>105</v>
-      </c>
-      <c r="FU7">
-        <v>105</v>
-      </c>
-      <c r="FV7">
-        <v>104</v>
-      </c>
-      <c r="FW7">
-        <v>104</v>
-      </c>
-      <c r="FX7">
-        <v>104</v>
-      </c>
-      <c r="FY7">
-        <v>103</v>
-      </c>
-      <c r="FZ7">
-        <v>103</v>
-      </c>
-      <c r="GA7">
-        <v>105</v>
-      </c>
-      <c r="GB7">
-        <v>106</v>
-      </c>
-      <c r="GC7">
-        <v>108</v>
-      </c>
-      <c r="GD7">
-        <v>110</v>
-      </c>
-      <c r="GE7">
-        <v>110</v>
-      </c>
-      <c r="GF7">
-        <v>110</v>
-      </c>
-      <c r="GG7">
-        <v>111</v>
-      </c>
-      <c r="GH7">
-        <v>111</v>
-      </c>
-      <c r="GI7">
-        <v>112</v>
-      </c>
-      <c r="GJ7">
-        <v>102</v>
-      </c>
-      <c r="GK7">
-        <v>100</v>
-      </c>
-      <c r="GL7">
-        <v>98</v>
-      </c>
-      <c r="GM7">
-        <v>96</v>
-      </c>
-      <c r="GN7">
-        <v>94</v>
-      </c>
-      <c r="GO7">
-        <v>93</v>
-      </c>
-      <c r="GP7">
-        <v>92</v>
-      </c>
-      <c r="GQ7">
-        <v>92</v>
-      </c>
-      <c r="GR7">
-        <v>92</v>
-      </c>
-      <c r="GS7">
-        <v>92</v>
-      </c>
-      <c r="GT7">
-        <v>93</v>
-      </c>
-      <c r="GU7">
-        <v>102</v>
-      </c>
-      <c r="GV7">
-        <v>100</v>
-      </c>
-      <c r="GW7">
-        <v>98</v>
-      </c>
-      <c r="GX7">
-        <v>96</v>
-      </c>
-      <c r="GY7">
-        <v>94</v>
-      </c>
-      <c r="GZ7">
-        <v>93</v>
-      </c>
-      <c r="HA7">
-        <v>92</v>
-      </c>
-      <c r="HB7">
-        <v>92</v>
-      </c>
-      <c r="HC7">
-        <v>92</v>
-      </c>
-      <c r="HD7">
-        <v>92</v>
-      </c>
-      <c r="HE7">
-        <v>110</v>
-      </c>
-      <c r="HF7">
-        <v>110</v>
-      </c>
-      <c r="HG7">
-        <v>109</v>
-      </c>
-      <c r="HH7">
-        <v>109</v>
-      </c>
-      <c r="HI7">
-        <v>108</v>
-      </c>
-      <c r="HJ7">
-        <v>108</v>
-      </c>
-      <c r="HK7">
-        <v>107</v>
-      </c>
-      <c r="HL7">
-        <v>107</v>
-      </c>
-      <c r="HM7">
-        <v>107</v>
-      </c>
-      <c r="HN7">
-        <v>106</v>
-      </c>
-      <c r="HO7">
-        <v>106</v>
-      </c>
-      <c r="HP7">
-        <v>105</v>
-      </c>
-      <c r="HQ7">
-        <v>105</v>
-      </c>
-      <c r="HR7">
-        <v>105</v>
-      </c>
-      <c r="HS7">
-        <v>104</v>
-      </c>
-      <c r="HT7">
-        <v>104</v>
-      </c>
-      <c r="HU7">
-        <v>104</v>
-      </c>
-      <c r="HV7">
-        <v>103</v>
-      </c>
-      <c r="HW7">
-        <v>103</v>
-      </c>
-      <c r="HX7">
-        <v>103</v>
-      </c>
-      <c r="HY7">
-        <v>102</v>
-      </c>
-      <c r="HZ7">
-        <v>101</v>
-      </c>
-      <c r="IA7">
-        <v>101</v>
-      </c>
-      <c r="IB7">
-        <v>101</v>
-      </c>
-      <c r="IC7">
-        <v>100</v>
-      </c>
-      <c r="ID7">
-        <v>100</v>
-      </c>
-      <c r="IE7">
-        <v>100</v>
-      </c>
-      <c r="IF7">
-        <v>100</v>
-      </c>
-      <c r="IG7">
-        <v>104</v>
-      </c>
-      <c r="IH7">
-        <v>103</v>
-      </c>
-      <c r="II7">
-        <v>102</v>
-      </c>
-      <c r="IJ7">
-        <v>102</v>
-      </c>
-      <c r="IK7">
-        <v>101</v>
-      </c>
-      <c r="IL7">
-        <v>100</v>
-      </c>
-      <c r="IM7">
-        <v>100</v>
-      </c>
-      <c r="IN7">
-        <v>99</v>
-      </c>
-      <c r="IO7">
-        <v>99</v>
-      </c>
-      <c r="IP7">
-        <v>98</v>
-      </c>
-      <c r="IQ7">
-        <v>97</v>
-      </c>
-      <c r="IR7">
-        <v>96</v>
-      </c>
-      <c r="IS7">
-        <v>95</v>
-      </c>
-      <c r="IT7">
-        <v>95</v>
-      </c>
-      <c r="IU7">
-        <v>94</v>
-      </c>
-      <c r="IV7">
-        <v>93</v>
-      </c>
-      <c r="IW7">
-        <v>92</v>
-      </c>
-      <c r="IX7">
-        <v>91</v>
-      </c>
-      <c r="IY7">
-        <v>90</v>
-      </c>
-      <c r="IZ7">
-        <v>89</v>
-      </c>
-      <c r="JA7">
-        <v>88</v>
-      </c>
-      <c r="JB7">
-        <v>88</v>
-      </c>
-      <c r="JC7">
-        <v>87</v>
-      </c>
-      <c r="JD7">
-        <v>86</v>
-      </c>
-      <c r="JE7">
-        <v>85</v>
-      </c>
-      <c r="JF7">
-        <v>84</v>
-      </c>
-      <c r="JG7">
-        <v>83</v>
-      </c>
-      <c r="JH7">
-        <v>96</v>
-      </c>
-      <c r="JI7">
-        <v>95</v>
-      </c>
-      <c r="JJ7">
-        <v>94</v>
-      </c>
-      <c r="JK7">
-        <v>93</v>
-      </c>
-      <c r="JL7">
-        <v>92</v>
-      </c>
-      <c r="JM7">
-        <v>91</v>
-      </c>
-      <c r="JN7">
-        <v>90</v>
-      </c>
-      <c r="JO7">
-        <v>89</v>
-      </c>
-      <c r="JP7">
-        <v>88</v>
-      </c>
-      <c r="JQ7">
-        <v>87</v>
-      </c>
-      <c r="JR7">
-        <v>86</v>
-      </c>
-      <c r="JS7">
-        <v>85</v>
-      </c>
-      <c r="JT7">
-        <v>84</v>
-      </c>
-      <c r="JU7">
-        <v>83</v>
-      </c>
-      <c r="JV7">
-        <v>81</v>
-      </c>
-      <c r="JW7">
-        <v>80</v>
-      </c>
-      <c r="JX7">
-        <v>79</v>
-      </c>
-      <c r="JY7">
-        <v>78</v>
-      </c>
-      <c r="JZ7">
-        <v>77</v>
-      </c>
-      <c r="KA7">
-        <v>107</v>
-      </c>
-      <c r="KB7">
-        <v>107</v>
-      </c>
-      <c r="KC7">
-        <v>107</v>
-      </c>
-      <c r="KD7">
-        <v>106</v>
-      </c>
-      <c r="KE7">
-        <v>106</v>
-      </c>
-      <c r="KF7">
-        <v>105</v>
-      </c>
-      <c r="KG7">
-        <v>104</v>
-      </c>
-      <c r="KH7">
-        <v>104</v>
-      </c>
-      <c r="KI7">
-        <v>103</v>
-      </c>
-      <c r="KJ7">
-        <v>103</v>
-      </c>
-      <c r="KK7">
-        <v>103</v>
-      </c>
-      <c r="KL7">
-        <v>102</v>
-      </c>
-      <c r="KM7">
-        <v>102</v>
-      </c>
-      <c r="KN7">
-        <v>101</v>
-      </c>
-      <c r="KO7">
-        <v>101</v>
-      </c>
-      <c r="KP7">
-        <v>100</v>
-      </c>
-      <c r="KQ7">
-        <v>100</v>
-      </c>
-      <c r="KR7">
-        <v>99</v>
-      </c>
-      <c r="KS7">
-        <v>99</v>
-      </c>
-      <c r="KT7">
-        <v>99</v>
-      </c>
-      <c r="KU7">
-        <v>98</v>
-      </c>
-      <c r="KV7">
-        <v>98</v>
-      </c>
-      <c r="KW7">
-        <v>98</v>
-      </c>
-      <c r="KX7">
-        <v>98</v>
-      </c>
-      <c r="KY7">
-        <v>97</v>
-      </c>
-      <c r="KZ7">
-        <v>97</v>
-      </c>
-      <c r="LA7">
-        <v>97</v>
-      </c>
-      <c r="LB7">
-        <v>97</v>
-      </c>
-      <c r="LC7">
-        <v>101</v>
-      </c>
-      <c r="LD7">
-        <v>101</v>
-      </c>
-      <c r="LE7">
-        <v>100</v>
-      </c>
-      <c r="LF7">
-        <v>99</v>
-      </c>
-      <c r="LG7">
-        <v>98</v>
-      </c>
-      <c r="LH7">
-        <v>97</v>
-      </c>
-      <c r="LI7">
-        <v>95</v>
-      </c>
-      <c r="LJ7">
-        <v>94</v>
-      </c>
-      <c r="LK7">
-        <v>93</v>
-      </c>
-      <c r="LL7">
-        <v>92</v>
-      </c>
-      <c r="LM7">
-        <v>91</v>
-      </c>
-      <c r="LN7">
-        <v>90</v>
-      </c>
-      <c r="LO7">
-        <v>89</v>
-      </c>
-      <c r="LP7">
-        <v>88</v>
-      </c>
-      <c r="LQ7">
-        <v>87</v>
-      </c>
-      <c r="LR7">
-        <v>86</v>
-      </c>
-      <c r="LS7">
-        <v>84</v>
-      </c>
-      <c r="LT7">
-        <v>84</v>
-      </c>
-      <c r="LU7">
-        <v>83</v>
-      </c>
-      <c r="LV7">
-        <v>82</v>
-      </c>
-      <c r="LW7">
-        <v>82</v>
-      </c>
-      <c r="LX7">
-        <v>93</v>
-      </c>
-      <c r="LY7">
-        <v>91</v>
-      </c>
-      <c r="LZ7">
-        <v>90</v>
-      </c>
-      <c r="MA7">
-        <v>88</v>
-      </c>
-      <c r="MB7">
-        <v>86</v>
-      </c>
-      <c r="MC7">
-        <v>85</v>
-      </c>
-      <c r="MD7">
-        <v>83</v>
-      </c>
-      <c r="ME7">
-        <v>82</v>
-      </c>
-      <c r="MF7">
-        <v>81</v>
-      </c>
-      <c r="MG7">
-        <v>79</v>
-      </c>
-      <c r="MH7">
-        <v>78</v>
-      </c>
-      <c r="MI7">
-        <v>76</v>
-      </c>
-      <c r="MJ7">
-        <v>75</v>
-      </c>
-      <c r="MK7">
-        <v>73</v>
-      </c>
-      <c r="ML7">
-        <v>72</v>
-      </c>
-      <c r="MM7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>155</v>
-      </c>
-      <c r="E10">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>153</v>
-      </c>
-      <c r="E11">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D12">
-        <v>153</v>
-      </c>
-      <c r="E12">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>152</v>
-      </c>
-      <c r="E13">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>151</v>
-      </c>
-      <c r="E14">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>149</v>
-      </c>
-      <c r="E15">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="3:351" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>148</v>
-      </c>
-      <c r="E16">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>146</v>
-      </c>
-      <c r="E17">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>144</v>
-      </c>
-      <c r="E18">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>143</v>
-      </c>
-      <c r="E19">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>141</v>
-      </c>
-      <c r="E20">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>139</v>
-      </c>
-      <c r="E21">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>138</v>
-      </c>
-      <c r="E22">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>136</v>
-      </c>
-      <c r="E23">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>134</v>
-      </c>
-      <c r="E24">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>132</v>
-      </c>
-      <c r="E25">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26">
-        <v>130</v>
-      </c>
-      <c r="E26">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27">
-        <v>128</v>
-      </c>
-      <c r="E27">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D28">
-        <v>126</v>
-      </c>
-      <c r="E28">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D29">
-        <v>124</v>
-      </c>
-      <c r="E29">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30">
-        <v>122</v>
-      </c>
-      <c r="E30">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D31">
-        <v>120</v>
-      </c>
-      <c r="E31">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D32">
-        <v>119</v>
-      </c>
-      <c r="E32">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33">
-        <v>118</v>
-      </c>
-      <c r="E33">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34">
-        <v>118</v>
-      </c>
-      <c r="E34">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35">
-        <v>116</v>
-      </c>
-      <c r="E35">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36">
-        <v>116</v>
-      </c>
-      <c r="E36">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37">
-        <v>116</v>
-      </c>
-      <c r="E37">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D38">
-        <v>115</v>
-      </c>
-      <c r="E38">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D39">
-        <v>114</v>
-      </c>
-      <c r="E39">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40">
-        <v>113</v>
-      </c>
-      <c r="E40">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D41">
-        <v>113</v>
-      </c>
-      <c r="E41">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D42">
-        <v>112</v>
-      </c>
-      <c r="E42">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D43">
-        <v>111</v>
-      </c>
-      <c r="E43">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D44">
-        <v>110</v>
-      </c>
-      <c r="E44">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D45">
-        <v>109</v>
-      </c>
-      <c r="E45">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D46">
-        <v>107</v>
-      </c>
-      <c r="E46">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D47">
-        <v>106</v>
-      </c>
-      <c r="E47">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D48">
-        <v>105</v>
-      </c>
-      <c r="E48">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D49">
-        <v>104</v>
-      </c>
-      <c r="E49">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D50">
-        <v>103</v>
-      </c>
-      <c r="E50">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D51">
-        <v>103</v>
-      </c>
-      <c r="E51">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D52">
-        <v>102</v>
-      </c>
-      <c r="E52">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D53">
-        <v>101</v>
-      </c>
-      <c r="E53">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D54">
-        <v>100</v>
-      </c>
-      <c r="E54">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D55">
-        <v>99</v>
-      </c>
-      <c r="E55">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D56">
-        <v>98</v>
-      </c>
-      <c r="E56">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D57">
-        <v>98</v>
-      </c>
-      <c r="E57">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D58">
-        <v>98</v>
-      </c>
-      <c r="E58">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59">
-        <v>98</v>
-      </c>
-      <c r="E59">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60">
-        <v>98</v>
-      </c>
-      <c r="E60">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D61">
-        <v>98</v>
-      </c>
-      <c r="E61">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D62">
-        <v>98</v>
-      </c>
-      <c r="E62">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D63">
-        <v>98</v>
-      </c>
-      <c r="E63">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D64">
-        <v>98</v>
-      </c>
-      <c r="E64">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D65">
-        <v>98</v>
-      </c>
-      <c r="E65">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D66">
-        <v>97</v>
-      </c>
-      <c r="E66">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D67">
-        <v>97</v>
-      </c>
-      <c r="E67">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D68">
-        <v>155</v>
-      </c>
-      <c r="E68">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D69">
-        <v>156</v>
-      </c>
-      <c r="E69">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D70">
-        <v>157</v>
-      </c>
-      <c r="E70">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D71">
-        <v>157</v>
-      </c>
-      <c r="E71">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D72">
-        <v>158</v>
-      </c>
-      <c r="E72">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D73">
-        <v>159</v>
-      </c>
-      <c r="E73">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D74">
-        <v>160</v>
-      </c>
-      <c r="E74">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D75">
-        <v>161</v>
-      </c>
-      <c r="E75">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D76">
-        <v>162</v>
-      </c>
-      <c r="E76">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D77">
-        <v>162</v>
-      </c>
-      <c r="E77">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D78">
-        <v>164</v>
-      </c>
-      <c r="E78">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D79">
-        <v>165</v>
-      </c>
-      <c r="E79">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D80">
-        <v>166</v>
-      </c>
-      <c r="E80">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D81">
-        <v>167</v>
-      </c>
-      <c r="E81">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D82">
-        <v>168</v>
-      </c>
-      <c r="E82">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D83">
-        <v>170</v>
-      </c>
-      <c r="E83">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D84">
-        <v>170</v>
-      </c>
-      <c r="E84">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D85">
-        <v>171</v>
-      </c>
-      <c r="E85">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D86">
-        <v>171</v>
-      </c>
-      <c r="E86">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D87">
-        <v>172</v>
-      </c>
-      <c r="E87">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D88">
-        <v>172</v>
-      </c>
-      <c r="E88">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D89">
-        <v>172</v>
-      </c>
-      <c r="E89">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D90">
-        <v>173</v>
-      </c>
-      <c r="E90">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D91">
-        <v>173</v>
-      </c>
-      <c r="E91">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D92">
-        <v>173</v>
-      </c>
-      <c r="E92">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D93">
-        <v>173</v>
-      </c>
-      <c r="E93">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D94">
-        <v>174</v>
-      </c>
-      <c r="E94">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D95">
-        <v>174</v>
-      </c>
-      <c r="E95">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D96">
-        <v>176</v>
-      </c>
-      <c r="E96">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D97">
-        <v>176</v>
-      </c>
-      <c r="E97">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D98">
-        <v>176</v>
-      </c>
-      <c r="E98">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D99">
-        <v>177</v>
-      </c>
-      <c r="E99">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D100">
-        <v>177</v>
-      </c>
-      <c r="E100">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D101">
-        <v>177</v>
-      </c>
-      <c r="E101">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D102">
-        <v>177</v>
-      </c>
-      <c r="E102">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D103">
-        <v>177</v>
-      </c>
-      <c r="E103">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D104">
-        <v>177</v>
-      </c>
-      <c r="E104">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D105">
-        <v>177</v>
-      </c>
-      <c r="E105">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D106">
-        <v>175</v>
-      </c>
-      <c r="E106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D107">
-        <v>175</v>
-      </c>
-      <c r="E107">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D108">
-        <v>174</v>
-      </c>
-      <c r="E108">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D109">
-        <v>173</v>
-      </c>
-      <c r="E109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D110">
-        <v>172</v>
-      </c>
-      <c r="E110">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D111">
-        <v>170</v>
-      </c>
-      <c r="E111">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D112">
-        <v>169</v>
-      </c>
-      <c r="E112">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D113">
-        <v>168</v>
-      </c>
-      <c r="E113">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D114">
-        <v>166</v>
-      </c>
-      <c r="E114">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D115">
-        <v>165</v>
-      </c>
-      <c r="E115">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D116">
-        <v>163</v>
-      </c>
-      <c r="E116">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D117">
-        <v>162</v>
-      </c>
-      <c r="E117">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D118">
-        <v>161</v>
-      </c>
-      <c r="E118">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D119">
-        <v>159</v>
-      </c>
-      <c r="E119">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D120">
-        <v>157</v>
-      </c>
-      <c r="E120">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D121">
-        <v>156</v>
-      </c>
-      <c r="E121">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D122">
-        <v>154</v>
-      </c>
-      <c r="E122">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D123">
-        <v>152</v>
-      </c>
-      <c r="E123">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D124">
-        <v>150</v>
-      </c>
-      <c r="E124">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D125">
-        <v>149</v>
-      </c>
-      <c r="E125">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D126">
-        <v>147</v>
-      </c>
-      <c r="E126">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D127">
-        <v>145</v>
-      </c>
-      <c r="E127">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D128">
-        <v>143</v>
-      </c>
-      <c r="E128">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D129">
-        <v>141</v>
-      </c>
-      <c r="E129">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D130">
-        <v>139</v>
-      </c>
-      <c r="E130">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D131">
-        <v>137</v>
-      </c>
-      <c r="E131">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D132">
-        <v>135</v>
-      </c>
-      <c r="E132">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D133">
-        <v>133</v>
-      </c>
-      <c r="E133">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D134">
-        <v>131</v>
-      </c>
-      <c r="E134">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D135">
-        <v>129</v>
-      </c>
-      <c r="E135">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D136">
-        <v>127</v>
-      </c>
-      <c r="E136">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D137">
-        <v>125</v>
-      </c>
-      <c r="E137">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D138">
-        <v>123</v>
-      </c>
-      <c r="E138">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D139">
-        <v>121</v>
-      </c>
-      <c r="E139">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D140">
-        <v>119</v>
-      </c>
-      <c r="E140">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D141">
-        <v>117</v>
-      </c>
-      <c r="E141">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D142">
-        <v>116</v>
-      </c>
-      <c r="E142">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D143">
-        <v>114</v>
-      </c>
-      <c r="E143">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D144">
-        <v>113</v>
-      </c>
-      <c r="E144">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D145">
-        <v>111</v>
-      </c>
-      <c r="E145">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D146">
-        <v>110</v>
-      </c>
-      <c r="E146">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D147">
-        <v>108</v>
-      </c>
-      <c r="E147">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D148">
-        <v>107</v>
-      </c>
-      <c r="E148">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D149">
-        <v>106</v>
-      </c>
-      <c r="E149">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D150">
-        <v>105</v>
-      </c>
-      <c r="E150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D151">
-        <v>104</v>
-      </c>
-      <c r="E151">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D152">
-        <v>103</v>
-      </c>
-      <c r="E152">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D153">
-        <v>102</v>
-      </c>
-      <c r="E153">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D154">
-        <v>101</v>
-      </c>
-      <c r="E154">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D155">
-        <v>100</v>
-      </c>
-      <c r="E155">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D156">
-        <v>99</v>
-      </c>
-      <c r="E156">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D157">
-        <v>98</v>
-      </c>
-      <c r="E157">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D158">
-        <v>98</v>
-      </c>
-      <c r="E158">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D159">
-        <v>97</v>
-      </c>
-      <c r="E159">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D160">
-        <v>96</v>
-      </c>
-      <c r="E160">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D161">
-        <v>96</v>
-      </c>
-      <c r="E161">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D162">
-        <v>96</v>
-      </c>
-      <c r="E162">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D163">
-        <v>95</v>
-      </c>
-      <c r="E163">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D164">
-        <v>95</v>
-      </c>
-      <c r="E164">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D165">
-        <v>95</v>
-      </c>
-      <c r="E165">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D166">
-        <v>96</v>
-      </c>
-      <c r="E166">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D167">
-        <v>139</v>
-      </c>
-      <c r="E167">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D168">
-        <v>138</v>
-      </c>
-      <c r="E168">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D169">
-        <v>136</v>
-      </c>
-      <c r="E169">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D170">
-        <v>134</v>
-      </c>
-      <c r="E170">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D171">
-        <v>132</v>
-      </c>
-      <c r="E171">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D172">
-        <v>130</v>
-      </c>
-      <c r="E172">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D173">
-        <v>128</v>
-      </c>
-      <c r="E173">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D174">
-        <v>128</v>
-      </c>
-      <c r="E174">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D175">
-        <v>129</v>
-      </c>
-      <c r="E175">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D176">
-        <v>130</v>
-      </c>
-      <c r="E176">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D177">
-        <v>131</v>
-      </c>
-      <c r="E177">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D178">
-        <v>132</v>
-      </c>
-      <c r="E178">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D179">
-        <v>134</v>
-      </c>
-      <c r="E179">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D180">
-        <v>135</v>
-      </c>
-      <c r="E180">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D181">
-        <v>137</v>
-      </c>
-      <c r="E181">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D182">
-        <v>139</v>
-      </c>
-      <c r="E182">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D183">
-        <v>140</v>
-      </c>
-      <c r="E183">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D184">
-        <v>142</v>
-      </c>
-      <c r="E184">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D185">
-        <v>142</v>
-      </c>
-      <c r="E185">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D186">
-        <v>143</v>
-      </c>
-      <c r="E186">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D187">
-        <v>143</v>
-      </c>
-      <c r="E187">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D188">
-        <v>143</v>
-      </c>
-      <c r="E188">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D189">
-        <v>141</v>
-      </c>
-      <c r="E189">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D190">
-        <v>139</v>
-      </c>
-      <c r="E190">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D191">
-        <v>138</v>
-      </c>
-      <c r="E191">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D192">
-        <v>136</v>
-      </c>
-      <c r="E192">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D193">
-        <v>135</v>
-      </c>
-      <c r="E193">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D194">
-        <v>138</v>
-      </c>
-      <c r="E194">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D195">
-        <v>138</v>
-      </c>
-      <c r="E195">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D196">
-        <v>138</v>
-      </c>
-      <c r="E196">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D197">
-        <v>138</v>
-      </c>
-      <c r="E197">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D198">
-        <v>138</v>
-      </c>
-      <c r="E198">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D199">
-        <v>137</v>
-      </c>
-      <c r="E199">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D200">
-        <v>136</v>
-      </c>
-      <c r="E200">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D201">
-        <v>134</v>
-      </c>
-      <c r="E201">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D202">
-        <v>132</v>
-      </c>
-      <c r="E202">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D203">
-        <v>130</v>
-      </c>
-      <c r="E203">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D204">
-        <v>129</v>
-      </c>
-      <c r="E204">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D205">
-        <v>139</v>
-      </c>
-      <c r="E205">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D206">
-        <v>139</v>
-      </c>
-      <c r="E206">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D207">
-        <v>139</v>
-      </c>
-      <c r="E207">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D208">
-        <v>139</v>
-      </c>
-      <c r="E208">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D209">
-        <v>139</v>
-      </c>
-      <c r="E209">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D210">
-        <v>140</v>
-      </c>
-      <c r="E210">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D211">
-        <v>141</v>
-      </c>
-      <c r="E211">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D212">
-        <v>143</v>
-      </c>
-      <c r="E212">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D213">
-        <v>145</v>
-      </c>
-      <c r="E213">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D214">
-        <v>147</v>
-      </c>
-      <c r="E214">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D215">
-        <v>163</v>
-      </c>
-      <c r="E215">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D216">
-        <v>165</v>
-      </c>
-      <c r="E216">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D217">
-        <v>166</v>
-      </c>
-      <c r="E217">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D218">
-        <v>168</v>
-      </c>
-      <c r="E218">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D219">
-        <v>170</v>
-      </c>
-      <c r="E219">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D220">
-        <v>172</v>
-      </c>
-      <c r="E220">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D221">
-        <v>173</v>
-      </c>
-      <c r="E221">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D222">
-        <v>175</v>
-      </c>
-      <c r="E222">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D223">
-        <v>177</v>
-      </c>
-      <c r="E223">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D224">
-        <v>178</v>
-      </c>
-      <c r="E224">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D225">
-        <v>180</v>
-      </c>
-      <c r="E225">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D226">
-        <v>181</v>
-      </c>
-      <c r="E226">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D227">
-        <v>183</v>
-      </c>
-      <c r="E227">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D228">
-        <v>185</v>
-      </c>
-      <c r="E228">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D229">
-        <v>186</v>
-      </c>
-      <c r="E229">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D230">
-        <v>188</v>
-      </c>
-      <c r="E230">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D231">
-        <v>190</v>
-      </c>
-      <c r="E231">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D232">
-        <v>191</v>
-      </c>
-      <c r="E232">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D233">
-        <v>193</v>
-      </c>
-      <c r="E233">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D234">
-        <v>195</v>
-      </c>
-      <c r="E234">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D235">
-        <v>197</v>
-      </c>
-      <c r="E235">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D236">
-        <v>199</v>
-      </c>
-      <c r="E236">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D237">
-        <v>201</v>
-      </c>
-      <c r="E237">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D238">
-        <v>203</v>
-      </c>
-      <c r="E238">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D239">
-        <v>205</v>
-      </c>
-      <c r="E239">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D240">
-        <v>207</v>
-      </c>
-      <c r="E240">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D241">
-        <v>209</v>
-      </c>
-      <c r="E241">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D242">
-        <v>211</v>
-      </c>
-      <c r="E242">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D243">
-        <v>156</v>
-      </c>
-      <c r="E243">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D244">
-        <v>157</v>
-      </c>
-      <c r="E244">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D245">
-        <v>158</v>
-      </c>
-      <c r="E245">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D246">
-        <v>160</v>
-      </c>
-      <c r="E246">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D247">
-        <v>161</v>
-      </c>
-      <c r="E247">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D248">
-        <v>162</v>
-      </c>
-      <c r="E248">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D249">
-        <v>164</v>
-      </c>
-      <c r="E249">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D250">
-        <v>165</v>
-      </c>
-      <c r="E250">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D251">
-        <v>167</v>
-      </c>
-      <c r="E251">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D252">
-        <v>169</v>
-      </c>
-      <c r="E252">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D253">
-        <v>170</v>
-      </c>
-      <c r="E253">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D254">
-        <v>172</v>
-      </c>
-      <c r="E254">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D255">
-        <v>173</v>
-      </c>
-      <c r="E255">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D256">
-        <v>175</v>
-      </c>
-      <c r="E256">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D257">
-        <v>176</v>
-      </c>
-      <c r="E257">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D258">
-        <v>177</v>
-      </c>
-      <c r="E258">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D259">
-        <v>179</v>
-      </c>
-      <c r="E259">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D260">
-        <v>180</v>
-      </c>
-      <c r="E260">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D261">
-        <v>181</v>
-      </c>
-      <c r="E261">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D262">
-        <v>183</v>
-      </c>
-      <c r="E262">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D263">
-        <v>184</v>
-      </c>
-      <c r="E263">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D264">
-        <v>186</v>
-      </c>
-      <c r="E264">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D265">
-        <v>187</v>
-      </c>
-      <c r="E265">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D266">
-        <v>188</v>
-      </c>
-      <c r="E266">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D267">
-        <v>189</v>
-      </c>
-      <c r="E267">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D268">
-        <v>190</v>
-      </c>
-      <c r="E268">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D269">
-        <v>191</v>
-      </c>
-      <c r="E269">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D270">
-        <v>152</v>
-      </c>
-      <c r="E270">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D271">
-        <v>153</v>
-      </c>
-      <c r="E271">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D272">
-        <v>155</v>
-      </c>
-      <c r="E272">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D273">
-        <v>156</v>
-      </c>
-      <c r="E273">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D274">
-        <v>157</v>
-      </c>
-      <c r="E274">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D275">
-        <v>159</v>
-      </c>
-      <c r="E275">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D276">
-        <v>161</v>
-      </c>
-      <c r="E276">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D277">
-        <v>162</v>
-      </c>
-      <c r="E277">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D278">
-        <v>163</v>
-      </c>
-      <c r="E278">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D279">
-        <v>164</v>
-      </c>
-      <c r="E279">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D280">
-        <v>165</v>
-      </c>
-      <c r="E280">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D281">
-        <v>167</v>
-      </c>
-      <c r="E281">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D282">
-        <v>168</v>
-      </c>
-      <c r="E282">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D283">
-        <v>169</v>
-      </c>
-      <c r="E283">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D284">
-        <v>171</v>
-      </c>
-      <c r="E284">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D285">
-        <v>172</v>
-      </c>
-      <c r="E285">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D286">
-        <v>173</v>
-      </c>
-      <c r="E286">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D287">
-        <v>174</v>
-      </c>
-      <c r="E287">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D288">
-        <v>175</v>
-      </c>
-      <c r="E288">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D289">
-        <v>114</v>
-      </c>
-      <c r="E289">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D290">
-        <v>112</v>
-      </c>
-      <c r="E290">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D291">
-        <v>110</v>
-      </c>
-      <c r="E291">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D292">
-        <v>109</v>
-      </c>
-      <c r="E292">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D293">
-        <v>107</v>
-      </c>
-      <c r="E293">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D294">
-        <v>106</v>
-      </c>
-      <c r="E294">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D295">
-        <v>105</v>
-      </c>
-      <c r="E295">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D296">
-        <v>103</v>
-      </c>
-      <c r="E296">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D297">
-        <v>102</v>
-      </c>
-      <c r="E297">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D298">
-        <v>100</v>
-      </c>
-      <c r="E298">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D299">
-        <v>98</v>
-      </c>
-      <c r="E299">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D300">
-        <v>97</v>
-      </c>
-      <c r="E300">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D301">
-        <v>95</v>
-      </c>
-      <c r="E301">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D302">
-        <v>94</v>
-      </c>
-      <c r="E302">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D303">
-        <v>92</v>
-      </c>
-      <c r="E303">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D304">
-        <v>91</v>
-      </c>
-      <c r="E304">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D305">
-        <v>89</v>
-      </c>
-      <c r="E305">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D306">
-        <v>88</v>
-      </c>
-      <c r="E306">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D307">
-        <v>86</v>
-      </c>
-      <c r="E307">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D308">
-        <v>84</v>
-      </c>
-      <c r="E308">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D309">
-        <v>83</v>
-      </c>
-      <c r="E309">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D310">
-        <v>81</v>
-      </c>
-      <c r="E310">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D311">
-        <v>79</v>
-      </c>
-      <c r="E311">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D312">
-        <v>81</v>
-      </c>
-      <c r="E312">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D313">
-        <v>82</v>
-      </c>
-      <c r="E313">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D314">
-        <v>84</v>
-      </c>
-      <c r="E314">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D315">
-        <v>86</v>
-      </c>
-      <c r="E315">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D316">
-        <v>88</v>
-      </c>
-      <c r="E316">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D317">
-        <v>120</v>
-      </c>
-      <c r="E317">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D318">
-        <v>118</v>
-      </c>
-      <c r="E318">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D319">
-        <v>117</v>
-      </c>
-      <c r="E319">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D320">
-        <v>116</v>
-      </c>
-      <c r="E320">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D321">
-        <v>115</v>
-      </c>
-      <c r="E321">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D322">
-        <v>114</v>
-      </c>
-      <c r="E322">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D323">
-        <v>114</v>
-      </c>
-      <c r="E323">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D324">
-        <v>113</v>
-      </c>
-      <c r="E324">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D325">
-        <v>112</v>
-      </c>
-      <c r="E325">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D326">
-        <v>111</v>
-      </c>
-      <c r="E326">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D327">
-        <v>110</v>
-      </c>
-      <c r="E327">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D328">
-        <v>109</v>
-      </c>
-      <c r="E328">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D329">
-        <v>108</v>
-      </c>
-      <c r="E329">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D330">
-        <v>107</v>
-      </c>
-      <c r="E330">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D331">
-        <v>106</v>
-      </c>
-      <c r="E331">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D332">
-        <v>104</v>
-      </c>
-      <c r="E332">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D333">
-        <v>104</v>
-      </c>
-      <c r="E333">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D334">
-        <v>102</v>
-      </c>
-      <c r="E334">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D335">
-        <v>101</v>
-      </c>
-      <c r="E335">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D336">
-        <v>100</v>
-      </c>
-      <c r="E336">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D337">
-        <v>98</v>
-      </c>
-      <c r="E337">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D338">
-        <v>124</v>
-      </c>
-      <c r="E338">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D339">
-        <v>124</v>
-      </c>
-      <c r="E339">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D340">
-        <v>123</v>
-      </c>
-      <c r="E340">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D341">
-        <v>123</v>
-      </c>
-      <c r="E341">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D342">
-        <v>122</v>
-      </c>
-      <c r="E342">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D343">
-        <v>121</v>
-      </c>
-      <c r="E343">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D344">
-        <v>121</v>
-      </c>
-      <c r="E344">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D345">
-        <v>119</v>
-      </c>
-      <c r="E345">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D346">
-        <v>118</v>
-      </c>
-      <c r="E346">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D347">
-        <v>118</v>
-      </c>
-      <c r="E347">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D348">
-        <v>117</v>
-      </c>
-      <c r="E348">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D349">
-        <v>117</v>
-      </c>
-      <c r="E349">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D350">
-        <v>116</v>
-      </c>
-      <c r="E350">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D351">
-        <v>116</v>
-      </c>
-      <c r="E351">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D352">
-        <v>115</v>
-      </c>
-      <c r="E352">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D353">
-        <v>115</v>
-      </c>
-      <c r="E353">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D754114F-8263-40B2-B3C4-9268AA6CC4BD}">
   <dimension ref="B1:H39"/>
   <sheetViews>
@@ -15180,7 +10286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B79D5-775D-4E29-9EAD-7B49CEA3F9FE}">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -15594,7 +10700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196369A-03D1-4C8F-98BD-7201DFB37612}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -15630,7 +10736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEAF763-B173-4EDE-A20E-88549F619A6F}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\Geek Stuff\Source Code\Arduino Source Code\O-Scope_XY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\Geek Stuff\Projects\O-Scope_XY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF05D64-CB8A-4F35-BED2-728D46284E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F3CA4-DBC4-47B2-95B3-C8472CCA392E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5844" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{A4021E60-8DFB-4E05-9B04-73E3B9062F1F}"/>
+    <workbookView xWindow="3576" yWindow="0" windowWidth="19560" windowHeight="12456" activeTab="1" xr2:uid="{A4021E60-8DFB-4E05-9B04-73E3B9062F1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cat points" sheetId="7" r:id="rId1"/>
-    <sheet name="Tek" sheetId="5" r:id="rId2"/>
-    <sheet name="Trav" sheetId="2" r:id="rId3"/>
-    <sheet name="Tree" sheetId="1" r:id="rId4"/>
-    <sheet name="Clover" sheetId="3" r:id="rId5"/>
-    <sheet name="4  leaf" sheetId="4" r:id="rId6"/>
+    <sheet name="HLeaf" sheetId="8" r:id="rId1"/>
+    <sheet name="AlphaNum" sheetId="7" r:id="rId2"/>
+    <sheet name="Tek" sheetId="5" r:id="rId3"/>
+    <sheet name="Trav" sheetId="2" r:id="rId4"/>
+    <sheet name="Tree" sheetId="1" r:id="rId5"/>
+    <sheet name="Clover" sheetId="3" r:id="rId6"/>
+    <sheet name="4  leaf" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -87,6 +88,54 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -247,2082 +296,456 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cat points'!$B$2:$B$9996</c:f>
+              <c:f>HLeaf!$B$2:$B$9995</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9995"/>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0">
-                  <c:v>141</c:v>
+                <c:ptCount val="9994"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0">
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0">
+                <c:pt idx="47">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="0">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="50">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>98</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>98</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>98</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98</c:v>
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0">
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>98</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>97</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>156</c:v>
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0">
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>157</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>157</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>158</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>159</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="72" formatCode="0">
                   <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cat points'!$C$2:$C$9996</c:f>
+              <c:f>HLeaf!$C$2:$C$9995</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9995"/>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>132</c:v>
+                <c:ptCount val="9994"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="59">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="60">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>70</c:v>
+                <c:pt idx="72" formatCode="0">
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +753,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-387B-473E-A51A-887C331CA6F2}"/>
+              <c16:uniqueId val="{00000000-3341-49CE-81B1-DBC7CFDBDF9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2579,246 +1002,210 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tek!$B$2:$B$9963</c:f>
+              <c:f>AlphaNum!$C$2:$C$9996</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9962"/>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50</c:v>
+                <c:ptCount val="9995"/>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0">
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0">
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>123</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0">
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tek!$C$2:$C$9963</c:f>
+              <c:f>AlphaNum!$D$2:$D$9996</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9962"/>
-                <c:pt idx="2">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>124</c:v>
+                <c:ptCount val="9995"/>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>144</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>144</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>164</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>124</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0">
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>114</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,7 +1213,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B80C-4829-96E3-054B3ED25CFE}"/>
+              <c16:uniqueId val="{00000000-387B-473E-A51A-887C331CA6F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3075,6 +1462,502 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Tek!$B$2:$B$9963</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9962"/>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tek!$C$2:$C$9963</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9962"/>
+                <c:pt idx="2">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B80C-4829-96E3-054B3ED25CFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="484594032"/>
+        <c:axId val="484589040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="484594032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="254"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484589040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="484589040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="254"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484594032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Trav!$B$2:$B$9996</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -3426,7 +2309,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3989,6 +2872,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5538,6 +4461,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6067,6 +5506,49 @@
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A807A93-FAFA-4A42-9F25-AE6705BBC173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>401955</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6096,7 +5578,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6139,7 +5621,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6180,7 +5662,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6517,11 +5999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E30558C-6DE1-4AFA-9C10-9F4E634DB145}">
-  <dimension ref="B1:H347"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E0C27D-633A-4324-8E02-3B5B5E53051E}">
+  <dimension ref="B1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U358" sqref="U358"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6537,436 +6019,452 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4">
+        <v>34</v>
+      </c>
+    </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>155</v>
-      </c>
-      <c r="C4" s="3">
-        <v>129</v>
+      <c r="B4" s="4">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>153</v>
-      </c>
-      <c r="C5" s="3">
-        <v>129</v>
+      <c r="B5" s="4">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>153</v>
-      </c>
-      <c r="C6" s="3">
-        <v>131</v>
+      <c r="B6" s="4">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>152</v>
-      </c>
-      <c r="C7" s="3">
-        <v>132</v>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>151</v>
+      <c r="B8" s="4">
+        <v>40</v>
       </c>
       <c r="C8" s="4">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>149</v>
-      </c>
-      <c r="C9" s="3">
-        <v>133</v>
+      <c r="B9" s="4">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>148</v>
-      </c>
-      <c r="C10" s="3">
-        <v>134</v>
+      <c r="B10" s="4">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>146</v>
-      </c>
-      <c r="C11" s="3">
-        <v>135</v>
+      <c r="B11" s="4">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>144</v>
-      </c>
-      <c r="C12" s="3">
-        <v>135</v>
+      <c r="B12" s="4">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>143</v>
-      </c>
-      <c r="C13" s="3">
-        <v>136</v>
+      <c r="B13" s="4">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3">
-        <v>136</v>
+      <c r="B14" s="4">
+        <v>70</v>
+      </c>
+      <c r="C14" s="4">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3">
-        <v>136</v>
+        <v>80</v>
+      </c>
+      <c r="C15" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>138</v>
-      </c>
-      <c r="C16" s="3">
-        <v>137</v>
+      <c r="B16" s="4">
+        <v>90</v>
+      </c>
+      <c r="C16" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>136</v>
-      </c>
-      <c r="C17" s="3">
-        <v>137</v>
+      <c r="B17" s="4">
+        <v>95</v>
+      </c>
+      <c r="C17" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>134</v>
-      </c>
-      <c r="C18" s="3">
-        <v>137</v>
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
+      <c r="C18" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>132</v>
-      </c>
-      <c r="C19" s="3">
-        <v>137</v>
+      <c r="B19" s="4">
+        <v>110</v>
+      </c>
+      <c r="C19" s="4">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
+      <c r="B20" s="4">
+        <v>118</v>
+      </c>
+      <c r="C20" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>130</v>
       </c>
-      <c r="C20" s="3">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>128</v>
-      </c>
-      <c r="C21" s="3">
-        <v>137</v>
+      <c r="C21" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <v>126</v>
-      </c>
-      <c r="C22" s="3">
-        <v>137</v>
+      <c r="B22" s="4">
+        <v>140</v>
+      </c>
+      <c r="C22" s="4">
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>124</v>
-      </c>
-      <c r="C23" s="3">
-        <v>137</v>
+      <c r="B23" s="4">
+        <v>150</v>
+      </c>
+      <c r="C23" s="4">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <v>122</v>
-      </c>
-      <c r="C24" s="3">
-        <v>137</v>
+      <c r="B24" s="4">
+        <v>160</v>
+      </c>
+      <c r="C24" s="4">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>120</v>
+      <c r="B25" s="4">
+        <v>168</v>
       </c>
       <c r="C25" s="4">
-        <v>137</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <v>119</v>
-      </c>
-      <c r="C26" s="3">
-        <v>136</v>
+      <c r="B26" s="4">
+        <v>175</v>
+      </c>
+      <c r="C26" s="4">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <v>118</v>
-      </c>
-      <c r="C27" s="3">
-        <v>135</v>
+      <c r="B27" s="4">
+        <v>180</v>
+      </c>
+      <c r="C27" s="4">
+        <v>80</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <v>118</v>
-      </c>
-      <c r="C28" s="3">
-        <v>133</v>
+      <c r="B28" s="4">
+        <v>190</v>
+      </c>
+      <c r="C28" s="4">
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>116</v>
+      <c r="B29" s="4">
+        <v>200</v>
       </c>
       <c r="C29" s="4">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
-        <v>116</v>
+        <v>210</v>
       </c>
       <c r="C30" s="4">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="C31" s="4">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
-        <v>115</v>
+      <c r="B32" s="4">
+        <v>220</v>
       </c>
       <c r="C32" s="4">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
-        <v>114</v>
+      <c r="B33" s="4">
+        <v>223</v>
       </c>
       <c r="C33" s="4">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="3">
-        <v>113</v>
-      </c>
-      <c r="C34" s="3">
-        <v>133</v>
+      <c r="B34" s="4">
+        <v>225</v>
+      </c>
+      <c r="C34" s="4">
+        <v>175</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C35" s="4">
-        <v>135</v>
+        <v>230</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <f>MAX(B:B)</f>
+        <v>225</v>
+      </c>
+      <c r="H35" s="5">
+        <f>MAX(C:C)</f>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="C36" s="4">
-        <v>136</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>15</v>
+        <v>229</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <f>MIN(B:B)</f>
+        <v>25</v>
+      </c>
+      <c r="H36" s="5">
+        <f>MIN(C:C)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="C37" s="4">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="5">
-        <f>MAX(B:B)</f>
-        <v>211</v>
+        <f>G35-G36</f>
+        <v>200</v>
       </c>
       <c r="H37" s="5">
-        <f>MAX(C:C)</f>
-        <v>152</v>
+        <f>H35-H36</f>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C38" s="4">
-        <v>138</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="5">
-        <f>MIN(B:B)</f>
-        <v>79</v>
-      </c>
-      <c r="H38" s="5">
-        <f>MIN(C:C)</f>
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C39" s="4">
-        <v>140</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="5">
-        <f>G37-G38</f>
-        <v>132</v>
-      </c>
-      <c r="H39" s="5">
-        <f>H37-H38</f>
-        <v>82</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="C40" s="4">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="C41" s="4">
-        <v>142</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C42" s="4">
-        <v>143</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="C43" s="4">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C44" s="4">
-        <v>145</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4">
-        <v>148</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C47" s="4">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C48" s="4">
-        <v>150</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C49" s="4">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" s="4">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -6974,2359 +6472,175 @@
         <v>98</v>
       </c>
       <c r="C53" s="4">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="4">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C54" s="4">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C55" s="4">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C56" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C57" s="4">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
-        <v>98</v>
-      </c>
-      <c r="C58" s="4">
-        <v>136</v>
+      <c r="B58" s="3">
+        <v>85</v>
+      </c>
+      <c r="C58" s="3">
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C59" s="4">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="4">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C60" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C61" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="4">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="C62" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="4">
-        <v>156</v>
-      </c>
-      <c r="C63" s="4">
-        <v>130</v>
+      <c r="B63" s="3">
+        <v>75</v>
+      </c>
+      <c r="C63" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="4">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C65" s="4">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="C66" s="4">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="C67" s="4">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C68" s="4">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C69" s="4">
-        <v>137</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="C70" s="4">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="4">
-        <v>162</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="B71" s="3">
+        <v>80</v>
+      </c>
+      <c r="C71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>125</v>
+      </c>
+      <c r="C72" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="3">
+        <v>160</v>
+      </c>
+      <c r="C73" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="4">
-        <v>164</v>
-      </c>
-      <c r="C72" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="4">
-        <v>165</v>
-      </c>
-      <c r="C73" s="4">
-        <v>141</v>
-      </c>
-    </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="4">
-        <v>166</v>
-      </c>
-      <c r="C74" s="4">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="4">
-        <v>167</v>
-      </c>
-      <c r="C75" s="4">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="4">
-        <v>168</v>
-      </c>
-      <c r="C76" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="4">
+      <c r="B74" s="3">
         <v>170</v>
       </c>
-      <c r="C77" s="4">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="4">
-        <v>170</v>
-      </c>
-      <c r="C78" s="4">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="4">
-        <v>171</v>
-      </c>
-      <c r="C79" s="4">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="4">
-        <v>171</v>
-      </c>
-      <c r="C80" s="4">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="4">
-        <v>172</v>
-      </c>
-      <c r="C81" s="4">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="4">
-        <v>172</v>
-      </c>
-      <c r="C82" s="4">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="4">
-        <v>172</v>
-      </c>
-      <c r="C83" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="4">
-        <v>173</v>
-      </c>
-      <c r="C84" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="4">
-        <v>173</v>
-      </c>
-      <c r="C85" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="4">
-        <v>173</v>
-      </c>
-      <c r="C86" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="4">
-        <v>173</v>
-      </c>
-      <c r="C87" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="4">
-        <v>174</v>
-      </c>
-      <c r="C88" s="4">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="4">
-        <v>174</v>
-      </c>
-      <c r="C89" s="4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="4">
-        <v>176</v>
-      </c>
-      <c r="C90" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="4">
-        <v>176</v>
-      </c>
-      <c r="C91" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="4">
-        <v>176</v>
-      </c>
-      <c r="C92" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="4">
-        <v>177</v>
-      </c>
-      <c r="C93" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="4">
-        <v>177</v>
-      </c>
-      <c r="C94" s="4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="4">
-        <v>177</v>
-      </c>
-      <c r="C95" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="4">
-        <v>177</v>
-      </c>
-      <c r="C96" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="4">
-        <v>177</v>
-      </c>
-      <c r="C97" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="4">
-        <v>177</v>
-      </c>
-      <c r="C98" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="4">
-        <v>177</v>
-      </c>
-      <c r="C99" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="4">
-        <v>175</v>
-      </c>
-      <c r="C100" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="4">
-        <v>175</v>
-      </c>
-      <c r="C101" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="4">
-        <v>174</v>
-      </c>
-      <c r="C102" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B103" s="4">
-        <v>173</v>
-      </c>
-      <c r="C103" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="4">
-        <v>172</v>
-      </c>
-      <c r="C104" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B105" s="4">
-        <v>170</v>
-      </c>
-      <c r="C105" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="4">
-        <v>169</v>
-      </c>
-      <c r="C106" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="4">
-        <v>168</v>
-      </c>
-      <c r="C107" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="4">
-        <v>166</v>
-      </c>
-      <c r="C108" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="4">
-        <v>165</v>
-      </c>
-      <c r="C109" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B110" s="4">
-        <v>163</v>
-      </c>
-      <c r="C110" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B111" s="4">
-        <v>162</v>
-      </c>
-      <c r="C111" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="4">
-        <v>161</v>
-      </c>
-      <c r="C112" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="4">
-        <v>159</v>
-      </c>
-      <c r="C113" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="4">
-        <v>157</v>
-      </c>
-      <c r="C114" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="4">
-        <v>156</v>
-      </c>
-      <c r="C115" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="4">
-        <v>154</v>
-      </c>
-      <c r="C116" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="4">
-        <v>152</v>
-      </c>
-      <c r="C117" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="4">
-        <v>150</v>
-      </c>
-      <c r="C118" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="4">
-        <v>149</v>
-      </c>
-      <c r="C119" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B120" s="4">
-        <v>147</v>
-      </c>
-      <c r="C120" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B121" s="4">
-        <v>145</v>
-      </c>
-      <c r="C121" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B122" s="4">
-        <v>143</v>
-      </c>
-      <c r="C122" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="4">
-        <v>141</v>
-      </c>
-      <c r="C123" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B124" s="4">
-        <v>139</v>
-      </c>
-      <c r="C124" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="4">
-        <v>137</v>
-      </c>
-      <c r="C125" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="4">
-        <v>135</v>
-      </c>
-      <c r="C126" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="4">
-        <v>133</v>
-      </c>
-      <c r="C127" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="4">
-        <v>131</v>
-      </c>
-      <c r="C128" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="4">
-        <v>129</v>
-      </c>
-      <c r="C129" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="4">
-        <v>127</v>
-      </c>
-      <c r="C130" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="4">
-        <v>125</v>
-      </c>
-      <c r="C131" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="4">
-        <v>123</v>
-      </c>
-      <c r="C132" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="4">
-        <v>121</v>
-      </c>
-      <c r="C133" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="4">
-        <v>119</v>
-      </c>
-      <c r="C134" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="4">
-        <v>117</v>
-      </c>
-      <c r="C135" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="4">
-        <v>116</v>
-      </c>
-      <c r="C136" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="4">
-        <v>114</v>
-      </c>
-      <c r="C137" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="4">
-        <v>113</v>
-      </c>
-      <c r="C138" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="4">
-        <v>111</v>
-      </c>
-      <c r="C139" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="4">
-        <v>110</v>
-      </c>
-      <c r="C140" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B141" s="4">
-        <v>108</v>
-      </c>
-      <c r="C141" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="4">
-        <v>107</v>
-      </c>
-      <c r="C142" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="4">
-        <v>106</v>
-      </c>
-      <c r="C143" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B144" s="4">
-        <v>105</v>
-      </c>
-      <c r="C144" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="4">
-        <v>104</v>
-      </c>
-      <c r="C145" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="4">
-        <v>103</v>
-      </c>
-      <c r="C146" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="4">
-        <v>102</v>
-      </c>
-      <c r="C147" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" s="4">
-        <v>101</v>
-      </c>
-      <c r="C148" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B149" s="4">
-        <v>100</v>
-      </c>
-      <c r="C149" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B150" s="4">
-        <v>99</v>
-      </c>
-      <c r="C150" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="4">
-        <v>98</v>
-      </c>
-      <c r="C151" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="4">
-        <v>98</v>
-      </c>
-      <c r="C152" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="4">
-        <v>97</v>
-      </c>
-      <c r="C153" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="4">
-        <v>96</v>
-      </c>
-      <c r="C154" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B155" s="4">
-        <v>96</v>
-      </c>
-      <c r="C155" s="4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B156" s="4">
-        <v>96</v>
-      </c>
-      <c r="C156" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="4">
-        <v>95</v>
-      </c>
-      <c r="C157" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="4">
-        <v>95</v>
-      </c>
-      <c r="C158" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="4">
-        <v>95</v>
-      </c>
-      <c r="C159" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="4">
-        <v>96</v>
-      </c>
-      <c r="C160" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="4">
-        <v>139</v>
-      </c>
-      <c r="C161" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="4">
-        <v>138</v>
-      </c>
-      <c r="C162" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="4">
-        <v>136</v>
-      </c>
-      <c r="C163" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="4">
-        <v>134</v>
-      </c>
-      <c r="C164" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="4">
-        <v>132</v>
-      </c>
-      <c r="C165" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="4">
-        <v>130</v>
-      </c>
-      <c r="C166" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="4">
-        <v>128</v>
-      </c>
-      <c r="C167" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="4">
-        <v>128</v>
-      </c>
-      <c r="C168" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" s="4">
-        <v>129</v>
-      </c>
-      <c r="C169" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="4">
-        <v>130</v>
-      </c>
-      <c r="C170" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="4">
-        <v>131</v>
-      </c>
-      <c r="C171" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="4">
-        <v>132</v>
-      </c>
-      <c r="C172" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="4">
-        <v>134</v>
-      </c>
-      <c r="C173" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="4">
-        <v>135</v>
-      </c>
-      <c r="C174" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B175" s="4">
-        <v>137</v>
-      </c>
-      <c r="C175" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="4">
-        <v>139</v>
-      </c>
-      <c r="C176" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="4">
-        <v>140</v>
-      </c>
-      <c r="C177" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B178" s="4">
-        <v>142</v>
-      </c>
-      <c r="C178" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B179" s="4">
-        <v>142</v>
-      </c>
-      <c r="C179" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180" s="4">
-        <v>143</v>
-      </c>
-      <c r="C180" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B181" s="4">
-        <v>143</v>
-      </c>
-      <c r="C181" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182" s="4">
-        <v>143</v>
-      </c>
-      <c r="C182" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183" s="4">
-        <v>141</v>
-      </c>
-      <c r="C183" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="4">
-        <v>139</v>
-      </c>
-      <c r="C184" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B185" s="4">
-        <v>138</v>
-      </c>
-      <c r="C185" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B186" s="4">
-        <v>136</v>
-      </c>
-      <c r="C186" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B187" s="4">
-        <v>135</v>
-      </c>
-      <c r="C187" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B188" s="4">
-        <v>138</v>
-      </c>
-      <c r="C188" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B189" s="4">
-        <v>138</v>
-      </c>
-      <c r="C189" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B190" s="4">
-        <v>138</v>
-      </c>
-      <c r="C190" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B191" s="4">
-        <v>138</v>
-      </c>
-      <c r="C191" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B192" s="4">
-        <v>138</v>
-      </c>
-      <c r="C192" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B193" s="4">
-        <v>137</v>
-      </c>
-      <c r="C193" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B194" s="4">
-        <v>136</v>
-      </c>
-      <c r="C194" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B195" s="4">
-        <v>134</v>
-      </c>
-      <c r="C195" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B196" s="4">
-        <v>132</v>
-      </c>
-      <c r="C196" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B197" s="4">
-        <v>130</v>
-      </c>
-      <c r="C197" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B198" s="4">
-        <v>129</v>
-      </c>
-      <c r="C198" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B199" s="4">
-        <v>139</v>
-      </c>
-      <c r="C199" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B200" s="4">
-        <v>139</v>
-      </c>
-      <c r="C200" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B201" s="4">
-        <v>139</v>
-      </c>
-      <c r="C201" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B202" s="4">
-        <v>139</v>
-      </c>
-      <c r="C202" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B203" s="4">
-        <v>139</v>
-      </c>
-      <c r="C203" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B204" s="4">
-        <v>140</v>
-      </c>
-      <c r="C204" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B205" s="4">
-        <v>141</v>
-      </c>
-      <c r="C205" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B206" s="4">
-        <v>143</v>
-      </c>
-      <c r="C206" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B207" s="4">
-        <v>145</v>
-      </c>
-      <c r="C207" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B208" s="4">
-        <v>147</v>
-      </c>
-      <c r="C208" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="4">
-        <v>163</v>
-      </c>
-      <c r="C209" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210" s="4">
-        <v>165</v>
-      </c>
-      <c r="C210" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211" s="4">
-        <v>166</v>
-      </c>
-      <c r="C211" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B212" s="4">
-        <v>168</v>
-      </c>
-      <c r="C212" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B213" s="4">
-        <v>170</v>
-      </c>
-      <c r="C213" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B214" s="4">
-        <v>172</v>
-      </c>
-      <c r="C214" s="4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B215" s="4">
-        <v>173</v>
-      </c>
-      <c r="C215" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B216" s="4">
-        <v>175</v>
-      </c>
-      <c r="C216" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B217" s="4">
-        <v>177</v>
-      </c>
-      <c r="C217" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B218" s="4">
-        <v>178</v>
-      </c>
-      <c r="C218" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B219" s="4">
-        <v>180</v>
-      </c>
-      <c r="C219" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B220" s="4">
-        <v>181</v>
-      </c>
-      <c r="C220" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B221" s="4">
-        <v>183</v>
-      </c>
-      <c r="C221" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B222" s="4">
-        <v>185</v>
-      </c>
-      <c r="C222" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B223" s="4">
-        <v>186</v>
-      </c>
-      <c r="C223" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B224" s="4">
-        <v>188</v>
-      </c>
-      <c r="C224" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B225" s="4">
-        <v>190</v>
-      </c>
-      <c r="C225" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B226" s="4">
-        <v>191</v>
-      </c>
-      <c r="C226" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B227" s="4">
-        <v>193</v>
-      </c>
-      <c r="C227" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B228" s="4">
-        <v>195</v>
-      </c>
-      <c r="C228" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B229" s="4">
-        <v>197</v>
-      </c>
-      <c r="C229" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B230" s="4">
-        <v>199</v>
-      </c>
-      <c r="C230" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B231" s="4">
-        <v>201</v>
-      </c>
-      <c r="C231" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B232" s="4">
-        <v>203</v>
-      </c>
-      <c r="C232" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B233" s="4">
-        <v>205</v>
-      </c>
-      <c r="C233" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B234" s="4">
-        <v>207</v>
-      </c>
-      <c r="C234" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B235" s="4">
-        <v>209</v>
-      </c>
-      <c r="C235" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B236" s="4">
-        <v>211</v>
-      </c>
-      <c r="C236" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B237" s="4">
-        <v>156</v>
-      </c>
-      <c r="C237" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B238" s="4">
-        <v>157</v>
-      </c>
-      <c r="C238" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B239" s="4">
-        <v>158</v>
-      </c>
-      <c r="C239" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B240" s="4">
+      <c r="C74" s="3">
         <v>160</v>
-      </c>
-      <c r="C240" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B241" s="4">
-        <v>161</v>
-      </c>
-      <c r="C241" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B242" s="4">
-        <v>162</v>
-      </c>
-      <c r="C242" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B243" s="4">
-        <v>164</v>
-      </c>
-      <c r="C243" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B244" s="4">
-        <v>165</v>
-      </c>
-      <c r="C244" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B245" s="4">
-        <v>167</v>
-      </c>
-      <c r="C245" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B246" s="4">
-        <v>169</v>
-      </c>
-      <c r="C246" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B247" s="4">
-        <v>170</v>
-      </c>
-      <c r="C247" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B248" s="4">
-        <v>172</v>
-      </c>
-      <c r="C248" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B249" s="4">
-        <v>173</v>
-      </c>
-      <c r="C249" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B250" s="4">
-        <v>175</v>
-      </c>
-      <c r="C250" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B251" s="4">
-        <v>176</v>
-      </c>
-      <c r="C251" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B252" s="4">
-        <v>177</v>
-      </c>
-      <c r="C252" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B253" s="4">
-        <v>179</v>
-      </c>
-      <c r="C253" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B254" s="4">
-        <v>180</v>
-      </c>
-      <c r="C254" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B255" s="4">
-        <v>181</v>
-      </c>
-      <c r="C255" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B256" s="4">
-        <v>183</v>
-      </c>
-      <c r="C256" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B257" s="4">
-        <v>184</v>
-      </c>
-      <c r="C257" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B258" s="4">
-        <v>186</v>
-      </c>
-      <c r="C258" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B259" s="4">
-        <v>187</v>
-      </c>
-      <c r="C259" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B260" s="4">
-        <v>188</v>
-      </c>
-      <c r="C260" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B261" s="4">
-        <v>189</v>
-      </c>
-      <c r="C261" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B262" s="4">
-        <v>190</v>
-      </c>
-      <c r="C262" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B263" s="4">
-        <v>191</v>
-      </c>
-      <c r="C263" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B264" s="4">
-        <v>152</v>
-      </c>
-      <c r="C264" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B265" s="4">
-        <v>153</v>
-      </c>
-      <c r="C265" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B266" s="4">
-        <v>155</v>
-      </c>
-      <c r="C266" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B267" s="4">
-        <v>156</v>
-      </c>
-      <c r="C267" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B268" s="4">
-        <v>157</v>
-      </c>
-      <c r="C268" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B269" s="4">
-        <v>159</v>
-      </c>
-      <c r="C269" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B270" s="4">
-        <v>161</v>
-      </c>
-      <c r="C270" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B271" s="4">
-        <v>162</v>
-      </c>
-      <c r="C271" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B272" s="4">
-        <v>163</v>
-      </c>
-      <c r="C272" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B273" s="4">
-        <v>164</v>
-      </c>
-      <c r="C273" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B274" s="4">
-        <v>165</v>
-      </c>
-      <c r="C274" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B275" s="4">
-        <v>167</v>
-      </c>
-      <c r="C275" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B276" s="4">
-        <v>168</v>
-      </c>
-      <c r="C276" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B277" s="4">
-        <v>169</v>
-      </c>
-      <c r="C277" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B278" s="4">
-        <v>171</v>
-      </c>
-      <c r="C278" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B279" s="4">
-        <v>172</v>
-      </c>
-      <c r="C279" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B280" s="4">
-        <v>173</v>
-      </c>
-      <c r="C280" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B281" s="4">
-        <v>174</v>
-      </c>
-      <c r="C281" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B282" s="4">
-        <v>175</v>
-      </c>
-      <c r="C282" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B283" s="4">
-        <v>114</v>
-      </c>
-      <c r="C283" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B284" s="4">
-        <v>112</v>
-      </c>
-      <c r="C284" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B285" s="4">
-        <v>110</v>
-      </c>
-      <c r="C285" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B286" s="4">
-        <v>109</v>
-      </c>
-      <c r="C286" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B287" s="4">
-        <v>107</v>
-      </c>
-      <c r="C287" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B288" s="4">
-        <v>106</v>
-      </c>
-      <c r="C288" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B289" s="4">
-        <v>105</v>
-      </c>
-      <c r="C289" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B290" s="4">
-        <v>103</v>
-      </c>
-      <c r="C290" s="4">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B291" s="4">
-        <v>102</v>
-      </c>
-      <c r="C291" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B292" s="4">
-        <v>100</v>
-      </c>
-      <c r="C292" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B293" s="4">
-        <v>98</v>
-      </c>
-      <c r="C293" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B294" s="4">
-        <v>97</v>
-      </c>
-      <c r="C294" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B295" s="4">
-        <v>95</v>
-      </c>
-      <c r="C295" s="4">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B296" s="4">
-        <v>94</v>
-      </c>
-      <c r="C296" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B297" s="4">
-        <v>92</v>
-      </c>
-      <c r="C297" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B298" s="4">
-        <v>91</v>
-      </c>
-      <c r="C298" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B299" s="4">
-        <v>89</v>
-      </c>
-      <c r="C299" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B300" s="4">
-        <v>88</v>
-      </c>
-      <c r="C300" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B301" s="4">
-        <v>86</v>
-      </c>
-      <c r="C301" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B302" s="4">
-        <v>84</v>
-      </c>
-      <c r="C302" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B303" s="4">
-        <v>83</v>
-      </c>
-      <c r="C303" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B304" s="4">
-        <v>81</v>
-      </c>
-      <c r="C304" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B305" s="4">
-        <v>79</v>
-      </c>
-      <c r="C305" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B306" s="4">
-        <v>81</v>
-      </c>
-      <c r="C306" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B307" s="4">
-        <v>82</v>
-      </c>
-      <c r="C307" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B308" s="4">
-        <v>84</v>
-      </c>
-      <c r="C308" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B309" s="4">
-        <v>86</v>
-      </c>
-      <c r="C309" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B310" s="4">
-        <v>88</v>
-      </c>
-      <c r="C310" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B311" s="4">
-        <v>120</v>
-      </c>
-      <c r="C311" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B312" s="4">
-        <v>118</v>
-      </c>
-      <c r="C312" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B313" s="4">
-        <v>117</v>
-      </c>
-      <c r="C313" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B314" s="4">
-        <v>116</v>
-      </c>
-      <c r="C314" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B315" s="4">
-        <v>115</v>
-      </c>
-      <c r="C315" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B316" s="4">
-        <v>114</v>
-      </c>
-      <c r="C316" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B317" s="4">
-        <v>114</v>
-      </c>
-      <c r="C317" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B318" s="4">
-        <v>113</v>
-      </c>
-      <c r="C318" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B319" s="4">
-        <v>112</v>
-      </c>
-      <c r="C319" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B320" s="4">
-        <v>111</v>
-      </c>
-      <c r="C320" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B321" s="4">
-        <v>110</v>
-      </c>
-      <c r="C321" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B322" s="4">
-        <v>109</v>
-      </c>
-      <c r="C322" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B323" s="4">
-        <v>108</v>
-      </c>
-      <c r="C323" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B324" s="4">
-        <v>107</v>
-      </c>
-      <c r="C324" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B325" s="4">
-        <v>106</v>
-      </c>
-      <c r="C325" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B326" s="4">
-        <v>104</v>
-      </c>
-      <c r="C326" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B327" s="4">
-        <v>104</v>
-      </c>
-      <c r="C327" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B328" s="4">
-        <v>102</v>
-      </c>
-      <c r="C328" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B329" s="4">
-        <v>101</v>
-      </c>
-      <c r="C329" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B330" s="4">
-        <v>100</v>
-      </c>
-      <c r="C330" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B331" s="4">
-        <v>98</v>
-      </c>
-      <c r="C331" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B332" s="4">
-        <v>124</v>
-      </c>
-      <c r="C332" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B333" s="4">
-        <v>124</v>
-      </c>
-      <c r="C333" s="4">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B334" s="4">
-        <v>123</v>
-      </c>
-      <c r="C334" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B335" s="4">
-        <v>123</v>
-      </c>
-      <c r="C335" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B336" s="4">
-        <v>122</v>
-      </c>
-      <c r="C336" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B337" s="4">
-        <v>121</v>
-      </c>
-      <c r="C337" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B338" s="4">
-        <v>121</v>
-      </c>
-      <c r="C338" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B339" s="4">
-        <v>119</v>
-      </c>
-      <c r="C339" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B340" s="4">
-        <v>118</v>
-      </c>
-      <c r="C340" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B341" s="4">
-        <v>118</v>
-      </c>
-      <c r="C341" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B342" s="4">
-        <v>117</v>
-      </c>
-      <c r="C342" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B343" s="4">
-        <v>117</v>
-      </c>
-      <c r="C343" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B344" s="4">
-        <v>116</v>
-      </c>
-      <c r="C344" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B345" s="4">
-        <v>116</v>
-      </c>
-      <c r="C345" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B346" s="4">
-        <v>115</v>
-      </c>
-      <c r="C346" s="4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B347" s="4">
-        <v>115</v>
-      </c>
-      <c r="C347" s="4">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -9337,6 +6651,862 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E30558C-6DE1-4AFA-9C10-9F4E634DB145}">
+  <dimension ref="B1:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="G4:I49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <f>C4/4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>D4/4</f>
+        <v>8</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"0x" &amp; DEC2HEX(E4*16+F4,2) &amp; ","</f>
+        <v>0x08,</v>
+      </c>
+      <c r="H4" t="str">
+        <f>"0x" &amp; DEC2HEX(E5*16+F5,2) &amp; ","</f>
+        <v>0x38,</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"// seg "&amp;B4</f>
+        <v>// seg a</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E50" si="0">C5/4</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F50" si="1">D5/4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"0x" &amp; DEC2HEX(E7*16+F7,2) &amp; ","</f>
+        <v>0x38,</v>
+      </c>
+      <c r="H7" t="str">
+        <f>"0x" &amp; DEC2HEX(E8*16+F8,2) &amp; ","</f>
+        <v>0x68,</v>
+      </c>
+      <c r="I7" t="str">
+        <f>"// seg "&amp;B7</f>
+        <v>// seg b</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"0x" &amp; DEC2HEX(E10*16+F10,2) &amp; ","</f>
+        <v>0x68,</v>
+      </c>
+      <c r="H10" t="str">
+        <f>"0x" &amp; DEC2HEX(E11*16+F11,2) &amp; ","</f>
+        <v>0x64,</v>
+      </c>
+      <c r="I10" t="str">
+        <f>"// seg "&amp;B10</f>
+        <v>// seg c</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"0x" &amp; DEC2HEX(E13*16+F13,2) &amp; ","</f>
+        <v>0x64,</v>
+      </c>
+      <c r="H13" t="str">
+        <f>"0x" &amp; DEC2HEX(E14*16+F14,2) &amp; ","</f>
+        <v>0x60,</v>
+      </c>
+      <c r="I13" t="str">
+        <f>"// seg "&amp;B13</f>
+        <v>// seg d</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f>"0x" &amp; DEC2HEX(E16*16+F16,2) &amp; ","</f>
+        <v>0x60,</v>
+      </c>
+      <c r="H16" t="str">
+        <f>"0x" &amp; DEC2HEX(E17*16+F17,2) &amp; ","</f>
+        <v>0x30,</v>
+      </c>
+      <c r="I16" t="str">
+        <f>"// seg "&amp;B16</f>
+        <v>// seg e</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"0x" &amp; DEC2HEX(E19*16+F19,2) &amp; ","</f>
+        <v>0x30,</v>
+      </c>
+      <c r="H19" t="str">
+        <f>"0x" &amp; DEC2HEX(E20*16+F20,2) &amp; ","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="I19" t="str">
+        <f>"// seg "&amp;B19</f>
+        <v>// seg f</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f>"0x" &amp; DEC2HEX(E22*16+F22,2) &amp; ","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="H22" t="str">
+        <f>"0x" &amp; DEC2HEX(E23*16+F23,2) &amp; ","</f>
+        <v>0x04,</v>
+      </c>
+      <c r="I22" t="str">
+        <f>"// seg "&amp;B22</f>
+        <v>// seg g</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"0x" &amp; DEC2HEX(E25*16+F25,2) &amp; ","</f>
+        <v>0x04,</v>
+      </c>
+      <c r="H25" t="str">
+        <f>"0x" &amp; DEC2HEX(E26*16+F26,2) &amp; ","</f>
+        <v>0x08,</v>
+      </c>
+      <c r="I25" t="str">
+        <f>"// seg "&amp;B25</f>
+        <v>// seg h</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"0x" &amp; DEC2HEX(E28*16+F28,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H28" t="str">
+        <f>"0x" &amp; DEC2HEX(E29*16+F29,2) &amp; ","</f>
+        <v>0x08,</v>
+      </c>
+      <c r="I28" t="str">
+        <f>"// seg "&amp;B28</f>
+        <v>// seg k</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>32</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"0x" &amp; DEC2HEX(E31*16+F31,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H31" t="str">
+        <f>"0x" &amp; DEC2HEX(E32*16+F32,2) &amp; ","</f>
+        <v>0x38,</v>
+      </c>
+      <c r="I31" t="str">
+        <f>"// seg "&amp;B31</f>
+        <v>// seg m</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
+        <f>MAX(C:C)</f>
+        <v>24</v>
+      </c>
+      <c r="L31" s="5">
+        <f>MAX(D:D)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="5">
+        <f>MIN(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <f>MIN(D:D)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="J33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="5">
+        <f>K31-K32</f>
+        <v>24</v>
+      </c>
+      <c r="L33" s="5">
+        <f>L31-L32</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+      <c r="D34" s="3">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G34" t="str">
+        <f>"0x" &amp; DEC2HEX(E34*16+F34,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H34" t="str">
+        <f>"0x" &amp; DEC2HEX(E35*16+F35,2) &amp; ","</f>
+        <v>0x68,</v>
+      </c>
+      <c r="I34" t="str">
+        <f>"// seg "&amp;B34</f>
+        <v>// seg n</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>24</v>
+      </c>
+      <c r="D35" s="4">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G37" t="str">
+        <f>"0x" &amp; DEC2HEX(E37*16+F37,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H37" t="str">
+        <f>"0x" &amp; DEC2HEX(E38*16+F38,2) &amp; ","</f>
+        <v>0x64,</v>
+      </c>
+      <c r="I37" t="str">
+        <f>"// seg "&amp;B37</f>
+        <v>// seg p</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G40" t="str">
+        <f>"0x" &amp; DEC2HEX(E40*16+F40,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H40" t="str">
+        <f>"0x" &amp; DEC2HEX(E41*16+F41,2) &amp; ","</f>
+        <v>0x60,</v>
+      </c>
+      <c r="I40" t="str">
+        <f>"// seg "&amp;B40</f>
+        <v>// seg r</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="4">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G43" t="str">
+        <f>"0x" &amp; DEC2HEX(E43*16+F43,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H43" t="str">
+        <f>"0x" &amp; DEC2HEX(E44*16+F44,2) &amp; ","</f>
+        <v>0x30,</v>
+      </c>
+      <c r="I43" t="str">
+        <f>"// seg "&amp;B43</f>
+        <v>// seg s</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="4">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="3">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G46" t="str">
+        <f>"0x" &amp; DEC2HEX(E46*16+F46,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H46" t="str">
+        <f>"0x" &amp; DEC2HEX(E47*16+F47,2) &amp; ","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="I46" t="str">
+        <f>"// seg "&amp;B46</f>
+        <v>// seg t</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="3">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G49" t="str">
+        <f>"0x" &amp; DEC2HEX(E49*16+F49,2) &amp; ","</f>
+        <v>0x34,</v>
+      </c>
+      <c r="H49" t="str">
+        <f>"0x" &amp; DEC2HEX(E50*16+F50,2) &amp; ","</f>
+        <v>0x04,</v>
+      </c>
+      <c r="I49" t="str">
+        <f>"// seg "&amp;B49</f>
+        <v>// seg u</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E157D2B-01D6-4B49-8135-2196AA1AD3FB}">
   <dimension ref="B1:J42"/>
   <sheetViews>
@@ -10011,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D754114F-8263-40B2-B3C4-9268AA6CC4BD}">
   <dimension ref="B1:H39"/>
   <sheetViews>
@@ -10286,7 +8456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B79D5-775D-4E29-9EAD-7B49CEA3F9FE}">
   <dimension ref="A1:T24"/>
   <sheetViews>
@@ -10700,7 +8870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4196369A-03D1-4C8F-98BD-7201DFB37612}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -10736,7 +8906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEAF763-B173-4EDE-A20E-88549F619A6F}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyData\Geek Stuff\Projects\O-Scope_XY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20F3CA4-DBC4-47B2-95B3-C8472CCA392E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C7B51-E4FB-4E11-AABF-826075E30F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3576" yWindow="0" windowWidth="19560" windowHeight="12456" activeTab="1" xr2:uid="{A4021E60-8DFB-4E05-9B04-73E3B9062F1F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>x</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>u</t>
+  </si>
+  <si>
+    <t>Least Comm Denom</t>
+  </si>
+  <si>
+    <t>XY Start</t>
+  </si>
+  <si>
+    <t>XY End</t>
   </si>
 </sst>
 </file>
@@ -6654,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E30558C-6DE1-4AFA-9C10-9F4E634DB145}">
   <dimension ref="B1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="G4:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6671,6 +6680,25 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
@@ -7263,6 +7291,24 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
+      <c r="K35">
+        <f>K31/4</f>
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <f>L31/4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <f t="shared" ref="K36:L36" si="2">K32/4</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
@@ -7293,6 +7339,14 @@
       <c r="I37" t="str">
         <f>"// seg "&amp;B37</f>
         <v>// seg p</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:L37" si="3">K33/4</f>
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
